--- a/Code/Results/Cases/Case_2_36/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_36/res_line/loading_percent.xlsx
@@ -412,16 +412,16 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>21.55539849053783</v>
+        <v>21.55539849053789</v>
       </c>
       <c r="C2">
-        <v>20.03702566426441</v>
+        <v>20.03702566426443</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>5.964149000995269</v>
+        <v>5.964149000995423</v>
       </c>
       <c r="F2">
         <v>30.27884324296193</v>
@@ -430,7 +430,7 @@
         <v>0</v>
       </c>
       <c r="H2">
-        <v>35.20355549435845</v>
+        <v>35.20355549435843</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -442,7 +442,7 @@
         <v>10.06118122914606</v>
       </c>
       <c r="L2">
-        <v>15.83328247351563</v>
+        <v>15.83328247351564</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -450,16 +450,16 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.96620893631987</v>
+        <v>19.96620893631979</v>
       </c>
       <c r="C3">
-        <v>18.54305887170111</v>
+        <v>18.54305887170112</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>5.881582430415295</v>
+        <v>5.881582430415204</v>
       </c>
       <c r="F3">
         <v>28.16301984326747</v>
@@ -468,7 +468,7 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>33.44038764396659</v>
+        <v>33.44038764396653</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -477,10 +477,10 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>9.546721195016696</v>
+        <v>9.546721195016636</v>
       </c>
       <c r="L3">
-        <v>14.70088866738799</v>
+        <v>14.70088866738795</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -488,16 +488,16 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.94626841258879</v>
+        <v>18.94626841258873</v>
       </c>
       <c r="C4">
-        <v>17.58617321230187</v>
+        <v>17.58617321230182</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>5.833936793713403</v>
+        <v>5.833936793713468</v>
       </c>
       <c r="F4">
         <v>26.79314218379242</v>
@@ -506,7 +506,7 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>32.34831928413383</v>
+        <v>32.34831928413372</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -515,10 +515,10 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>9.228305140498687</v>
+        <v>9.228305140498676</v>
       </c>
       <c r="L4">
-        <v>13.97425734861441</v>
+        <v>13.97425734861436</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -526,25 +526,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.5192080778497</v>
+        <v>18.51920807784972</v>
       </c>
       <c r="C5">
-        <v>17.18595727030367</v>
+        <v>17.18595727030357</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>5.815255205510121</v>
+        <v>5.815255205510071</v>
       </c>
       <c r="F5">
-        <v>26.21694803853475</v>
+        <v>26.21694803853472</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>31.9010089898494</v>
+        <v>31.90100898984957</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -553,10 +553,10 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>9.09798570945191</v>
+        <v>9.097985709451892</v>
       </c>
       <c r="L5">
-        <v>13.67004522182359</v>
+        <v>13.6700452218236</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -564,25 +564,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.44759619860118</v>
+        <v>18.44759619860111</v>
       </c>
       <c r="C6">
-        <v>17.11887217283299</v>
+        <v>17.11887217283314</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>5.812196584503314</v>
+        <v>5.812196584503308</v>
       </c>
       <c r="F6">
-        <v>26.1201820470107</v>
+        <v>26.12018204701068</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>31.8266004182436</v>
+        <v>31.8266004182438</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -591,10 +591,10 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>9.076315170856097</v>
+        <v>9.076315170856061</v>
       </c>
       <c r="L6">
-        <v>13.61903544287672</v>
+        <v>13.61903544287671</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -602,25 +602,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.94055559080621</v>
+        <v>18.94055559080611</v>
       </c>
       <c r="C7">
-        <v>17.58081777602795</v>
+        <v>17.58081777602782</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>5.833681915270554</v>
+        <v>5.833681915270407</v>
       </c>
       <c r="F7">
-        <v>26.78544435617556</v>
+        <v>26.78544435617551</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>32.34229574066396</v>
+        <v>32.34229574066402</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -629,10 +629,10 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>9.226549759116502</v>
+        <v>9.22654975911645</v>
       </c>
       <c r="L7">
-        <v>13.97018773032951</v>
+        <v>13.97018773032948</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -640,16 +640,16 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>21.01641110932661</v>
+        <v>21.0164111093266</v>
       </c>
       <c r="C8">
-        <v>19.52991567890255</v>
+        <v>19.52991567890253</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>5.935026395527625</v>
+        <v>5.935026395527715</v>
       </c>
       <c r="F8">
         <v>29.56389055882486</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>34.59760789361969</v>
+        <v>34.59760789361975</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -667,10 +667,10 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>9.884355693011383</v>
+        <v>9.884355693011379</v>
       </c>
       <c r="L8">
-        <v>15.44919480691977</v>
+        <v>15.44919480691974</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -678,10 +678,10 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>24.75305015965971</v>
+        <v>24.75305015965982</v>
       </c>
       <c r="C9">
-        <v>23.05468444146057</v>
+        <v>23.05468444146047</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -690,13 +690,13 @@
         <v>6.159616210514031</v>
       </c>
       <c r="F9">
-        <v>34.45877994148617</v>
+        <v>34.45877994148619</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>38.94695273641304</v>
+        <v>38.94695273641286</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -705,7 +705,7 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>11.15289540437012</v>
+        <v>11.1528954043701</v>
       </c>
       <c r="L9">
         <v>18.112364343138</v>
@@ -716,25 +716,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>27.32121433020188</v>
+        <v>27.32121433020196</v>
       </c>
       <c r="C10">
-        <v>25.49016390802742</v>
+        <v>25.49016390802745</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>6.343061663631082</v>
+        <v>6.343061663631114</v>
       </c>
       <c r="F10">
-        <v>37.72874519847221</v>
+        <v>37.72874519847222</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>42.1107238795992</v>
+        <v>42.11072387959931</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -743,10 +743,10 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>12.1605219930793</v>
+        <v>12.16052199307926</v>
       </c>
       <c r="L10">
-        <v>19.94299792474489</v>
+        <v>19.94299792474491</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -754,25 +754,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>28.45832119348205</v>
+        <v>28.45832119348198</v>
       </c>
       <c r="C11">
-        <v>26.57210386353231</v>
+        <v>26.57210386353219</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>6.431264553104324</v>
+        <v>6.431264553104329</v>
       </c>
       <c r="F11">
-        <v>39.14805722232856</v>
+        <v>39.14805722232859</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>43.54929562515956</v>
+        <v>43.54929562515927</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -781,10 +781,10 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>12.66815276990826</v>
+        <v>12.66815276990818</v>
       </c>
       <c r="L11">
-        <v>20.75350423992686</v>
+        <v>20.75350423992679</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -792,25 +792,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>28.88517302951295</v>
+        <v>28.88517302951268</v>
       </c>
       <c r="C12">
-        <v>26.97883653562403</v>
+        <v>26.97883653562406</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>6.465426022805436</v>
+        <v>6.465426022805476</v>
       </c>
       <c r="F12">
-        <v>39.67592721363785</v>
+        <v>39.67592721363781</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>44.09473240894074</v>
+        <v>44.09473240894032</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -819,10 +819,10 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>12.85871974730854</v>
+        <v>12.85871974730847</v>
       </c>
       <c r="L12">
-        <v>21.05773721724069</v>
+        <v>21.05773721724055</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -830,16 +830,16 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>28.79339620607027</v>
+        <v>28.79339620607031</v>
       </c>
       <c r="C13">
-        <v>26.89135795444538</v>
+        <v>26.89135795444541</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>6.458033477804998</v>
+        <v>6.458033477805025</v>
       </c>
       <c r="F13">
         <v>39.5626640325822</v>
@@ -848,7 +848,7 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>43.97721755441679</v>
+        <v>43.97721755441673</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -857,10 +857,10 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>12.81774596132029</v>
+        <v>12.81774596132028</v>
       </c>
       <c r="L13">
-        <v>20.99232554309981</v>
+        <v>20.99232554309982</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -868,25 +868,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>28.49350890602868</v>
+        <v>28.49350890602905</v>
       </c>
       <c r="C14">
-        <v>26.60562073340815</v>
+        <v>26.60562073340831</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>6.434059282710498</v>
+        <v>6.434059282710583</v>
       </c>
       <c r="F14">
-        <v>39.19167637503948</v>
+        <v>39.19167637503946</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>43.59415007302804</v>
+        <v>43.59415007302831</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -895,10 +895,10 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>12.68386210817643</v>
+        <v>12.68386210817646</v>
       </c>
       <c r="L14">
-        <v>20.77858426128964</v>
+        <v>20.77858426128981</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -906,25 +906,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>28.30935567500538</v>
+        <v>28.30935567500539</v>
       </c>
       <c r="C15">
-        <v>26.43023614516218</v>
+        <v>26.43023614516248</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>6.419476081166471</v>
+        <v>6.419476081166452</v>
       </c>
       <c r="F15">
-        <v>38.96319309154516</v>
+        <v>38.96319309154517</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>43.35962602890609</v>
+        <v>43.3596260289064</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -933,10 +933,10 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>12.6016483749782</v>
+        <v>12.60164837497837</v>
       </c>
       <c r="L15">
-        <v>20.64732833608948</v>
+        <v>20.64732833608961</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -944,16 +944,16 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>27.24633441539161</v>
+        <v>27.24633441539159</v>
       </c>
       <c r="C16">
-        <v>25.41899571248979</v>
+        <v>25.41899571249003</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>6.337399292347456</v>
+        <v>6.337399292347532</v>
       </c>
       <c r="F16">
         <v>37.6346354302881</v>
@@ -962,7 +962,7 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>42.01675751283435</v>
+        <v>42.01675751283461</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -971,10 +971,10 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>12.12709604154086</v>
+        <v>12.12709604154085</v>
       </c>
       <c r="L16">
-        <v>19.88962322658448</v>
+        <v>19.88962322658449</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -982,25 +982,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>26.58670530584187</v>
+        <v>26.58670530584191</v>
       </c>
       <c r="C17">
-        <v>24.79247772472908</v>
+        <v>24.79247772472912</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>6.288315331526436</v>
+        <v>6.288315331526394</v>
       </c>
       <c r="F17">
-        <v>36.80228778268389</v>
+        <v>36.80228778268393</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>41.19326224640981</v>
+        <v>41.19326224640986</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1009,10 +1009,10 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>11.83265740556388</v>
+        <v>11.83265740556395</v>
       </c>
       <c r="L17">
-        <v>19.41943088465517</v>
+        <v>19.41943088465527</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1020,25 +1020,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>26.20431965504321</v>
+        <v>26.20431965504316</v>
       </c>
       <c r="C18">
-        <v>24.4296235700017</v>
+        <v>24.42962357000187</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>6.260525400183442</v>
+        <v>6.260525400183384</v>
       </c>
       <c r="F18">
-        <v>36.31710943239624</v>
+        <v>36.31710943239623</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>40.71948938982258</v>
+        <v>40.71948938982255</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1050,7 +1050,7 @@
         <v>11.66891766145854</v>
       </c>
       <c r="L18">
-        <v>19.1468580560591</v>
+        <v>19.14685805605917</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1058,25 +1058,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>26.0743176155776</v>
+        <v>26.07431761557741</v>
       </c>
       <c r="C19">
-        <v>24.30631753516307</v>
+        <v>24.30631753516294</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>6.251189992650108</v>
+        <v>6.251189992650069</v>
       </c>
       <c r="F19">
-        <v>36.15172494157628</v>
+        <v>36.1517249415763</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>40.55903770244149</v>
+        <v>40.55903770244158</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1085,10 +1085,10 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>11.62223953750566</v>
+        <v>11.62223953750567</v>
       </c>
       <c r="L19">
-        <v>19.05418951731041</v>
+        <v>19.0541895173103</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1096,25 +1096,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>26.65722793176024</v>
+        <v>26.6572279317601</v>
       </c>
       <c r="C20">
-        <v>24.85942507077931</v>
+        <v>24.85942507077953</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>6.293494161539476</v>
+        <v>6.293494161539506</v>
       </c>
       <c r="F20">
-        <v>36.89155697731405</v>
+        <v>36.89155697731401</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>41.28093232330099</v>
+        <v>41.28093232330087</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1123,10 +1123,10 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>11.86413510105096</v>
+        <v>11.86413510105097</v>
       </c>
       <c r="L20">
-        <v>19.46970075927977</v>
+        <v>19.46970075927974</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1134,25 +1134,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>28.58168817163873</v>
+        <v>28.58168817163878</v>
       </c>
       <c r="C21">
-        <v>26.68962260985569</v>
+        <v>26.68962260985574</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>6.441079730873811</v>
+        <v>6.441079730873817</v>
       </c>
       <c r="F21">
-        <v>39.30090300329764</v>
+        <v>39.30090300329766</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>43.70664039604117</v>
+        <v>43.70664039604157</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1161,10 +1161,10 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>12.72322932163143</v>
+        <v>12.72322932163148</v>
       </c>
       <c r="L21">
-        <v>20.84143364315808</v>
+        <v>20.84143364315813</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1172,16 +1172,16 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>29.81805143807664</v>
+        <v>29.81805143807663</v>
       </c>
       <c r="C22">
-        <v>27.86889299741131</v>
+        <v>27.86889299741143</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>6.5420200162477</v>
+        <v>6.542020016247746</v>
       </c>
       <c r="F22">
         <v>40.81974568026784</v>
@@ -1190,7 +1190,7 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>45.29649803339331</v>
+        <v>45.29649803339325</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1199,10 +1199,10 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>13.2752038215373</v>
+        <v>13.27520382153735</v>
       </c>
       <c r="L22">
-        <v>21.72258509165007</v>
+        <v>21.72258509165012</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1210,25 +1210,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>29.15985574400391</v>
+        <v>29.15985574400393</v>
       </c>
       <c r="C23">
-        <v>27.24074567329028</v>
+        <v>27.24074567329017</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>6.487705659198073</v>
+        <v>6.487705659198093</v>
       </c>
       <c r="F23">
-        <v>40.01414225038423</v>
+        <v>40.01414225038425</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>44.44722459211876</v>
+        <v>44.44722459211873</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1237,10 +1237,10 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>12.9813523217077</v>
+        <v>12.9813523217076</v>
       </c>
       <c r="L23">
-        <v>21.2535068478158</v>
+        <v>21.25350684781577</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1251,22 +1251,22 @@
         <v>26.62535453674649</v>
       </c>
       <c r="C24">
-        <v>24.82916651827781</v>
+        <v>24.8291665182778</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>6.291151481588557</v>
+        <v>6.291151481588539</v>
       </c>
       <c r="F24">
-        <v>36.85121910575585</v>
+        <v>36.85121910575583</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>41.24129777838561</v>
+        <v>41.24129777838553</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1275,10 +1275,10 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>11.84990839920087</v>
+        <v>11.84990839920091</v>
       </c>
       <c r="L24">
-        <v>19.44698080391818</v>
+        <v>19.44698080391822</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1286,25 +1286,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>23.77545460975787</v>
+        <v>23.77545460975792</v>
       </c>
       <c r="C25">
-        <v>22.13042544689729</v>
+        <v>22.13042544689749</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>6.095838808288403</v>
+        <v>6.095838808288402</v>
       </c>
       <c r="F25">
-        <v>33.19272459127056</v>
+        <v>33.19272459127055</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>37.77739464615831</v>
+        <v>37.77739464615854</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1313,10 +1313,10 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>10.81202792253631</v>
+        <v>10.8120279225363</v>
       </c>
       <c r="L25">
-        <v>17.41554072276176</v>
+        <v>17.4155407227618</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_36/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_36/res_line/loading_percent.xlsx
@@ -412,16 +412,16 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>21.55539849053789</v>
+        <v>21.55539849053783</v>
       </c>
       <c r="C2">
-        <v>20.03702566426443</v>
+        <v>20.03702566426441</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>5.964149000995423</v>
+        <v>5.964149000995269</v>
       </c>
       <c r="F2">
         <v>30.27884324296193</v>
@@ -430,7 +430,7 @@
         <v>0</v>
       </c>
       <c r="H2">
-        <v>35.20355549435843</v>
+        <v>35.20355549435845</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -442,7 +442,7 @@
         <v>10.06118122914606</v>
       </c>
       <c r="L2">
-        <v>15.83328247351564</v>
+        <v>15.83328247351563</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -450,16 +450,16 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.96620893631979</v>
+        <v>19.96620893631987</v>
       </c>
       <c r="C3">
-        <v>18.54305887170112</v>
+        <v>18.54305887170111</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>5.881582430415204</v>
+        <v>5.881582430415295</v>
       </c>
       <c r="F3">
         <v>28.16301984326747</v>
@@ -468,7 +468,7 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>33.44038764396653</v>
+        <v>33.44038764396659</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -477,10 +477,10 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>9.546721195016636</v>
+        <v>9.546721195016696</v>
       </c>
       <c r="L3">
-        <v>14.70088866738795</v>
+        <v>14.70088866738799</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -488,16 +488,16 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.94626841258873</v>
+        <v>18.94626841258879</v>
       </c>
       <c r="C4">
-        <v>17.58617321230182</v>
+        <v>17.58617321230187</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>5.833936793713468</v>
+        <v>5.833936793713403</v>
       </c>
       <c r="F4">
         <v>26.79314218379242</v>
@@ -506,7 +506,7 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>32.34831928413372</v>
+        <v>32.34831928413383</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -515,10 +515,10 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>9.228305140498676</v>
+        <v>9.228305140498687</v>
       </c>
       <c r="L4">
-        <v>13.97425734861436</v>
+        <v>13.97425734861441</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -526,25 +526,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.51920807784972</v>
+        <v>18.5192080778497</v>
       </c>
       <c r="C5">
-        <v>17.18595727030357</v>
+        <v>17.18595727030367</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>5.815255205510071</v>
+        <v>5.815255205510121</v>
       </c>
       <c r="F5">
-        <v>26.21694803853472</v>
+        <v>26.21694803853475</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>31.90100898984957</v>
+        <v>31.9010089898494</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -553,10 +553,10 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>9.097985709451892</v>
+        <v>9.09798570945191</v>
       </c>
       <c r="L5">
-        <v>13.6700452218236</v>
+        <v>13.67004522182359</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -564,25 +564,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.44759619860111</v>
+        <v>18.44759619860118</v>
       </c>
       <c r="C6">
-        <v>17.11887217283314</v>
+        <v>17.11887217283299</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>5.812196584503308</v>
+        <v>5.812196584503314</v>
       </c>
       <c r="F6">
-        <v>26.12018204701068</v>
+        <v>26.1201820470107</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>31.8266004182438</v>
+        <v>31.8266004182436</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -591,10 +591,10 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>9.076315170856061</v>
+        <v>9.076315170856097</v>
       </c>
       <c r="L6">
-        <v>13.61903544287671</v>
+        <v>13.61903544287672</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -602,25 +602,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.94055559080611</v>
+        <v>18.94055559080621</v>
       </c>
       <c r="C7">
-        <v>17.58081777602782</v>
+        <v>17.58081777602795</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>5.833681915270407</v>
+        <v>5.833681915270554</v>
       </c>
       <c r="F7">
-        <v>26.78544435617551</v>
+        <v>26.78544435617556</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>32.34229574066402</v>
+        <v>32.34229574066396</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -629,10 +629,10 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>9.22654975911645</v>
+        <v>9.226549759116502</v>
       </c>
       <c r="L7">
-        <v>13.97018773032948</v>
+        <v>13.97018773032951</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -640,16 +640,16 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>21.0164111093266</v>
+        <v>21.01641110932661</v>
       </c>
       <c r="C8">
-        <v>19.52991567890253</v>
+        <v>19.52991567890255</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>5.935026395527715</v>
+        <v>5.935026395527625</v>
       </c>
       <c r="F8">
         <v>29.56389055882486</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>34.59760789361975</v>
+        <v>34.59760789361969</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -667,10 +667,10 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>9.884355693011379</v>
+        <v>9.884355693011383</v>
       </c>
       <c r="L8">
-        <v>15.44919480691974</v>
+        <v>15.44919480691977</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -678,10 +678,10 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>24.75305015965982</v>
+        <v>24.75305015965971</v>
       </c>
       <c r="C9">
-        <v>23.05468444146047</v>
+        <v>23.05468444146057</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -690,13 +690,13 @@
         <v>6.159616210514031</v>
       </c>
       <c r="F9">
-        <v>34.45877994148619</v>
+        <v>34.45877994148617</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>38.94695273641286</v>
+        <v>38.94695273641304</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -705,7 +705,7 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>11.1528954043701</v>
+        <v>11.15289540437012</v>
       </c>
       <c r="L9">
         <v>18.112364343138</v>
@@ -716,25 +716,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>27.32121433020196</v>
+        <v>27.32121433020188</v>
       </c>
       <c r="C10">
-        <v>25.49016390802745</v>
+        <v>25.49016390802742</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>6.343061663631114</v>
+        <v>6.343061663631082</v>
       </c>
       <c r="F10">
-        <v>37.72874519847222</v>
+        <v>37.72874519847221</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>42.11072387959931</v>
+        <v>42.1107238795992</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -743,10 +743,10 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>12.16052199307926</v>
+        <v>12.1605219930793</v>
       </c>
       <c r="L10">
-        <v>19.94299792474491</v>
+        <v>19.94299792474489</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -754,25 +754,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>28.45832119348198</v>
+        <v>28.45832119348205</v>
       </c>
       <c r="C11">
-        <v>26.57210386353219</v>
+        <v>26.57210386353231</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>6.431264553104329</v>
+        <v>6.431264553104324</v>
       </c>
       <c r="F11">
-        <v>39.14805722232859</v>
+        <v>39.14805722232856</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>43.54929562515927</v>
+        <v>43.54929562515956</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -781,10 +781,10 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>12.66815276990818</v>
+        <v>12.66815276990826</v>
       </c>
       <c r="L11">
-        <v>20.75350423992679</v>
+        <v>20.75350423992686</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -792,25 +792,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>28.88517302951268</v>
+        <v>28.88517302951295</v>
       </c>
       <c r="C12">
-        <v>26.97883653562406</v>
+        <v>26.97883653562403</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>6.465426022805476</v>
+        <v>6.465426022805436</v>
       </c>
       <c r="F12">
-        <v>39.67592721363781</v>
+        <v>39.67592721363785</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>44.09473240894032</v>
+        <v>44.09473240894074</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -819,10 +819,10 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>12.85871974730847</v>
+        <v>12.85871974730854</v>
       </c>
       <c r="L12">
-        <v>21.05773721724055</v>
+        <v>21.05773721724069</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -830,16 +830,16 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>28.79339620607031</v>
+        <v>28.79339620607027</v>
       </c>
       <c r="C13">
-        <v>26.89135795444541</v>
+        <v>26.89135795444538</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>6.458033477805025</v>
+        <v>6.458033477804998</v>
       </c>
       <c r="F13">
         <v>39.5626640325822</v>
@@ -848,7 +848,7 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>43.97721755441673</v>
+        <v>43.97721755441679</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -857,10 +857,10 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>12.81774596132028</v>
+        <v>12.81774596132029</v>
       </c>
       <c r="L13">
-        <v>20.99232554309982</v>
+        <v>20.99232554309981</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -868,25 +868,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>28.49350890602905</v>
+        <v>28.49350890602868</v>
       </c>
       <c r="C14">
-        <v>26.60562073340831</v>
+        <v>26.60562073340815</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>6.434059282710583</v>
+        <v>6.434059282710498</v>
       </c>
       <c r="F14">
-        <v>39.19167637503946</v>
+        <v>39.19167637503948</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>43.59415007302831</v>
+        <v>43.59415007302804</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -895,10 +895,10 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>12.68386210817646</v>
+        <v>12.68386210817643</v>
       </c>
       <c r="L14">
-        <v>20.77858426128981</v>
+        <v>20.77858426128964</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -906,25 +906,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>28.30935567500539</v>
+        <v>28.30935567500538</v>
       </c>
       <c r="C15">
-        <v>26.43023614516248</v>
+        <v>26.43023614516218</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>6.419476081166452</v>
+        <v>6.419476081166471</v>
       </c>
       <c r="F15">
-        <v>38.96319309154517</v>
+        <v>38.96319309154516</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>43.3596260289064</v>
+        <v>43.35962602890609</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -933,10 +933,10 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>12.60164837497837</v>
+        <v>12.6016483749782</v>
       </c>
       <c r="L15">
-        <v>20.64732833608961</v>
+        <v>20.64732833608948</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -944,16 +944,16 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>27.24633441539159</v>
+        <v>27.24633441539161</v>
       </c>
       <c r="C16">
-        <v>25.41899571249003</v>
+        <v>25.41899571248979</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>6.337399292347532</v>
+        <v>6.337399292347456</v>
       </c>
       <c r="F16">
         <v>37.6346354302881</v>
@@ -962,7 +962,7 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>42.01675751283461</v>
+        <v>42.01675751283435</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -971,10 +971,10 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>12.12709604154085</v>
+        <v>12.12709604154086</v>
       </c>
       <c r="L16">
-        <v>19.88962322658449</v>
+        <v>19.88962322658448</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -982,25 +982,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>26.58670530584191</v>
+        <v>26.58670530584187</v>
       </c>
       <c r="C17">
-        <v>24.79247772472912</v>
+        <v>24.79247772472908</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>6.288315331526394</v>
+        <v>6.288315331526436</v>
       </c>
       <c r="F17">
-        <v>36.80228778268393</v>
+        <v>36.80228778268389</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>41.19326224640986</v>
+        <v>41.19326224640981</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1009,10 +1009,10 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>11.83265740556395</v>
+        <v>11.83265740556388</v>
       </c>
       <c r="L17">
-        <v>19.41943088465527</v>
+        <v>19.41943088465517</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1020,25 +1020,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>26.20431965504316</v>
+        <v>26.20431965504321</v>
       </c>
       <c r="C18">
-        <v>24.42962357000187</v>
+        <v>24.4296235700017</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>6.260525400183384</v>
+        <v>6.260525400183442</v>
       </c>
       <c r="F18">
-        <v>36.31710943239623</v>
+        <v>36.31710943239624</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>40.71948938982255</v>
+        <v>40.71948938982258</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1050,7 +1050,7 @@
         <v>11.66891766145854</v>
       </c>
       <c r="L18">
-        <v>19.14685805605917</v>
+        <v>19.1468580560591</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1058,25 +1058,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>26.07431761557741</v>
+        <v>26.0743176155776</v>
       </c>
       <c r="C19">
-        <v>24.30631753516294</v>
+        <v>24.30631753516307</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>6.251189992650069</v>
+        <v>6.251189992650108</v>
       </c>
       <c r="F19">
-        <v>36.1517249415763</v>
+        <v>36.15172494157628</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>40.55903770244158</v>
+        <v>40.55903770244149</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1085,10 +1085,10 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>11.62223953750567</v>
+        <v>11.62223953750566</v>
       </c>
       <c r="L19">
-        <v>19.0541895173103</v>
+        <v>19.05418951731041</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1096,25 +1096,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>26.6572279317601</v>
+        <v>26.65722793176024</v>
       </c>
       <c r="C20">
-        <v>24.85942507077953</v>
+        <v>24.85942507077931</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>6.293494161539506</v>
+        <v>6.293494161539476</v>
       </c>
       <c r="F20">
-        <v>36.89155697731401</v>
+        <v>36.89155697731405</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>41.28093232330087</v>
+        <v>41.28093232330099</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1123,10 +1123,10 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>11.86413510105097</v>
+        <v>11.86413510105096</v>
       </c>
       <c r="L20">
-        <v>19.46970075927974</v>
+        <v>19.46970075927977</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1134,25 +1134,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>28.58168817163878</v>
+        <v>28.58168817163873</v>
       </c>
       <c r="C21">
-        <v>26.68962260985574</v>
+        <v>26.68962260985569</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>6.441079730873817</v>
+        <v>6.441079730873811</v>
       </c>
       <c r="F21">
-        <v>39.30090300329766</v>
+        <v>39.30090300329764</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>43.70664039604157</v>
+        <v>43.70664039604117</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1161,10 +1161,10 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>12.72322932163148</v>
+        <v>12.72322932163143</v>
       </c>
       <c r="L21">
-        <v>20.84143364315813</v>
+        <v>20.84143364315808</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1172,16 +1172,16 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>29.81805143807663</v>
+        <v>29.81805143807664</v>
       </c>
       <c r="C22">
-        <v>27.86889299741143</v>
+        <v>27.86889299741131</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>6.542020016247746</v>
+        <v>6.5420200162477</v>
       </c>
       <c r="F22">
         <v>40.81974568026784</v>
@@ -1190,7 +1190,7 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>45.29649803339325</v>
+        <v>45.29649803339331</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1199,10 +1199,10 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>13.27520382153735</v>
+        <v>13.2752038215373</v>
       </c>
       <c r="L22">
-        <v>21.72258509165012</v>
+        <v>21.72258509165007</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1210,25 +1210,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>29.15985574400393</v>
+        <v>29.15985574400391</v>
       </c>
       <c r="C23">
-        <v>27.24074567329017</v>
+        <v>27.24074567329028</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>6.487705659198093</v>
+        <v>6.487705659198073</v>
       </c>
       <c r="F23">
-        <v>40.01414225038425</v>
+        <v>40.01414225038423</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>44.44722459211873</v>
+        <v>44.44722459211876</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1237,10 +1237,10 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>12.9813523217076</v>
+        <v>12.9813523217077</v>
       </c>
       <c r="L23">
-        <v>21.25350684781577</v>
+        <v>21.2535068478158</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1251,22 +1251,22 @@
         <v>26.62535453674649</v>
       </c>
       <c r="C24">
-        <v>24.8291665182778</v>
+        <v>24.82916651827781</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>6.291151481588539</v>
+        <v>6.291151481588557</v>
       </c>
       <c r="F24">
-        <v>36.85121910575583</v>
+        <v>36.85121910575585</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>41.24129777838553</v>
+        <v>41.24129777838561</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1275,10 +1275,10 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>11.84990839920091</v>
+        <v>11.84990839920087</v>
       </c>
       <c r="L24">
-        <v>19.44698080391822</v>
+        <v>19.44698080391818</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1286,25 +1286,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>23.77545460975792</v>
+        <v>23.77545460975787</v>
       </c>
       <c r="C25">
-        <v>22.13042544689749</v>
+        <v>22.13042544689729</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>6.095838808288402</v>
+        <v>6.095838808288403</v>
       </c>
       <c r="F25">
-        <v>33.19272459127055</v>
+        <v>33.19272459127056</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>37.77739464615854</v>
+        <v>37.77739464615831</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1313,10 +1313,10 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>10.8120279225363</v>
+        <v>10.81202792253631</v>
       </c>
       <c r="L25">
-        <v>17.4155407227618</v>
+        <v>17.41554072276176</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_36/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_36/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,917 +406,992 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>21.55539849053783</v>
+        <v>21.40677006272509</v>
       </c>
       <c r="C2">
-        <v>20.03702566426441</v>
+        <v>19.87613113923225</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>5.964149000995269</v>
+        <v>5.825052288541121</v>
       </c>
       <c r="F2">
         <v>30.27884324296193</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>2.066161724516447</v>
       </c>
       <c r="H2">
-        <v>35.20355549435845</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>35.363921122602</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>10.06118122914606</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>15.83328247351563</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>10.05443412260925</v>
+      </c>
+      <c r="M2">
+        <v>15.73514462010292</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.96620893631987</v>
+        <v>19.82687591247021</v>
       </c>
       <c r="C3">
-        <v>18.54305887170111</v>
+        <v>18.393664383183</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>5.881582430415295</v>
+        <v>5.737871112479601</v>
       </c>
       <c r="F3">
         <v>28.16301984326747</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>2.080432590712494</v>
       </c>
       <c r="H3">
-        <v>33.44038764396659</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>33.63292012934508</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>9.546721195016696</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>14.70088866738799</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>9.543817806340652</v>
+      </c>
+      <c r="M3">
+        <v>14.60625476426258</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.94626841258879</v>
+        <v>18.81299532191542</v>
       </c>
       <c r="C4">
-        <v>17.58617321230187</v>
+        <v>17.44433126779024</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>5.833936793713403</v>
+        <v>5.687304583376225</v>
       </c>
       <c r="F4">
         <v>26.79314218379242</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>2.089312315935301</v>
       </c>
       <c r="H4">
-        <v>32.34831928413383</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>32.56199449932542</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>9.228305140498687</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>13.97425734861441</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>9.227869822327545</v>
+      </c>
+      <c r="M4">
+        <v>13.8817136335016</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.5192080778497</v>
+        <v>18.3885051934889</v>
       </c>
       <c r="C5">
-        <v>17.18595727030367</v>
+        <v>17.04733210932027</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>5.815255205510121</v>
+        <v>5.667413199347748</v>
       </c>
       <c r="F5">
         <v>26.21694803853475</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>2.092965980809792</v>
       </c>
       <c r="H5">
-        <v>31.9010089898494</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>32.12365179624395</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>9.09798570945191</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>13.67004522182359</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+        <v>9.098584535329246</v>
+      </c>
+      <c r="M5">
+        <v>13.57833908367054</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.44759619860118</v>
+        <v>18.31732655158883</v>
       </c>
       <c r="C6">
-        <v>17.11887217283299</v>
+        <v>16.98079003849463</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>5.812196584503314</v>
+        <v>5.664152585015475</v>
       </c>
       <c r="F6">
         <v>26.1201820470107</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>2.093574941765195</v>
       </c>
       <c r="H6">
-        <v>31.8266004182436</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>32.05075348276796</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>9.076315170856097</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>13.61903544287672</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+        <v>9.077087452514716</v>
+      </c>
+      <c r="M6">
+        <v>13.52746754297259</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.94055559080621</v>
+        <v>18.8073167383023</v>
       </c>
       <c r="C7">
-        <v>17.58081777602795</v>
+        <v>17.43901862955873</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>5.833681915270554</v>
+        <v>5.687033464983265</v>
       </c>
       <c r="F7">
         <v>26.78544435617556</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>2.089361441431298</v>
       </c>
       <c r="H7">
-        <v>32.34229574066396</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>32.55609047311526</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>9.226549759116502</v>
+        <v>0</v>
       </c>
       <c r="L7">
-        <v>13.97018773032951</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+        <v>9.226128271723265</v>
+      </c>
+      <c r="M7">
+        <v>13.87765536765341</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>21.01641110932661</v>
+        <v>20.87092161428425</v>
       </c>
       <c r="C8">
-        <v>19.52991567890255</v>
+        <v>19.37289326818231</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>5.935026395527625</v>
+        <v>5.794358264894004</v>
       </c>
       <c r="F8">
         <v>29.56389055882486</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>2.07106152620367</v>
       </c>
       <c r="H8">
-        <v>34.59760789361969</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>34.76877826668158</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>9.884355693011383</v>
+        <v>0</v>
       </c>
       <c r="L8">
-        <v>15.44919480691977</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+        <v>9.878912433049445</v>
+      </c>
+      <c r="M8">
+        <v>15.35227886850663</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>24.75305015965971</v>
+        <v>24.58581719689149</v>
       </c>
       <c r="C9">
-        <v>23.05468444146057</v>
+        <v>22.87106601377195</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>6.159616210514031</v>
+        <v>6.029864306436322</v>
       </c>
       <c r="F9">
         <v>34.45877994148617</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>2.035817030792017</v>
       </c>
       <c r="H9">
-        <v>38.94695273641304</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>39.04525051863919</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>11.15289540437012</v>
+        <v>0</v>
       </c>
       <c r="L9">
-        <v>18.112364343138</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+        <v>11.13836911674157</v>
+      </c>
+      <c r="M9">
+        <v>18.00625531668421</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>27.32121433020188</v>
+        <v>27.138657398512</v>
       </c>
       <c r="C10">
-        <v>25.49016390802742</v>
+        <v>25.28810174533221</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>6.343061663631082</v>
+        <v>6.220667553599993</v>
       </c>
       <c r="F10">
         <v>37.72874519847221</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>2.009839517576536</v>
       </c>
       <c r="H10">
-        <v>42.1107238795992</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>42.1612007148937</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>12.1605219930793</v>
+        <v>0</v>
       </c>
       <c r="L10">
-        <v>19.94299792474489</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+        <v>12.12138793647381</v>
+      </c>
+      <c r="M10">
+        <v>19.82952104509042</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>28.45832119348205</v>
+        <v>28.26874649144311</v>
       </c>
       <c r="C11">
-        <v>26.57210386353231</v>
+        <v>26.36167182274844</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>6.431264553104324</v>
+        <v>6.312034699843168</v>
       </c>
       <c r="F11">
         <v>39.14805722232856</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>1.997872071869291</v>
       </c>
       <c r="H11">
-        <v>43.54929562515956</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>43.57897625631537</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>12.66815276990826</v>
+        <v>0</v>
       </c>
       <c r="L11">
-        <v>20.75350423992686</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+        <v>12.62677834199323</v>
+      </c>
+      <c r="M11">
+        <v>20.63645295383265</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>28.88517302951295</v>
+        <v>28.69291469261993</v>
       </c>
       <c r="C12">
-        <v>26.97883653562403</v>
+        <v>26.76521594618335</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>6.465426022805436</v>
+        <v>6.347364525226891</v>
       </c>
       <c r="F12">
         <v>39.67592721363785</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>1.993305131919398</v>
       </c>
       <c r="H12">
-        <v>44.09473240894074</v>
+        <v>0</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>44.11664371939549</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>12.85871974730854</v>
+        <v>0</v>
       </c>
       <c r="L12">
-        <v>21.05773721724069</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+        <v>12.81647508492181</v>
+      </c>
+      <c r="M12">
+        <v>20.93928963245517</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>28.79339620607027</v>
+        <v>28.60171735907526</v>
       </c>
       <c r="C13">
-        <v>26.89135795444538</v>
+        <v>26.67842532476537</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>6.458033477804998</v>
+        <v>6.339721743864078</v>
       </c>
       <c r="F13">
         <v>39.5626640325822</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>1.994290511196706</v>
       </c>
       <c r="H13">
-        <v>43.97721755441679</v>
+        <v>0</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>44.00079802159262</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>12.81774596132029</v>
+        <v>0</v>
       </c>
       <c r="L13">
-        <v>20.99232554309981</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+        <v>12.77568982181113</v>
+      </c>
+      <c r="M13">
+        <v>20.87418078489841</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>28.49350890602868</v>
+        <v>28.3037140711292</v>
       </c>
       <c r="C14">
-        <v>26.60562073340815</v>
+        <v>26.39492689342042</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>6.434059282710498</v>
+        <v>6.314926171436457</v>
       </c>
       <c r="F14">
         <v>39.19167637503948</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>1.997497138150477</v>
       </c>
       <c r="H14">
-        <v>43.59415007302804</v>
+        <v>0</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>43.62318961047418</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>12.68386210817643</v>
+        <v>0</v>
       </c>
       <c r="L14">
-        <v>20.77858426128964</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
+        <v>12.64241656978148</v>
+      </c>
+      <c r="M14">
+        <v>20.66141903109771</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>28.30935567500538</v>
+        <v>28.12071079401683</v>
       </c>
       <c r="C15">
-        <v>26.43023614516218</v>
+        <v>26.22091041534878</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>6.419476081166471</v>
+        <v>6.299835848848763</v>
       </c>
       <c r="F15">
         <v>38.96319309154516</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>1.999456267665586</v>
       </c>
       <c r="H15">
-        <v>43.35962602890609</v>
+        <v>0</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>43.39202208888283</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>12.6016483749782</v>
+        <v>0</v>
       </c>
       <c r="L15">
-        <v>20.64732833608948</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
+        <v>12.56057376485947</v>
+      </c>
+      <c r="M15">
+        <v>20.53075715264742</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>27.24633441539161</v>
+        <v>27.06423360367302</v>
       </c>
       <c r="C16">
-        <v>25.41899571248979</v>
+        <v>25.21747917062779</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>6.337399292347456</v>
+        <v>6.214794412405427</v>
       </c>
       <c r="F16">
         <v>37.6346354302881</v>
       </c>
       <c r="G16">
-        <v>0</v>
+        <v>2.010617498539327</v>
       </c>
       <c r="H16">
-        <v>42.01675751283435</v>
+        <v>0</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>42.06861014671014</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>12.12709604154086</v>
+        <v>0</v>
       </c>
       <c r="L16">
-        <v>19.88962322658448</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
+        <v>12.08810575592147</v>
+      </c>
+      <c r="M16">
+        <v>19.7763746175984</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>26.58670530584187</v>
+        <v>26.40859451379856</v>
       </c>
       <c r="C17">
-        <v>24.79247772472908</v>
+        <v>24.59574274850977</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>6.288315331526436</v>
+        <v>6.16384245453244</v>
       </c>
       <c r="F17">
         <v>36.80228778268389</v>
       </c>
       <c r="G17">
-        <v>0</v>
+        <v>2.017417255800826</v>
       </c>
       <c r="H17">
-        <v>41.19326224640981</v>
+        <v>0</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>41.25727581876497</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>11.83265740556388</v>
+        <v>0</v>
       </c>
       <c r="L17">
-        <v>19.41943088465517</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
+        <v>11.794914765419</v>
+      </c>
+      <c r="M17">
+        <v>19.30815687252731</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>26.20431965504321</v>
+        <v>26.02850077235949</v>
       </c>
       <c r="C18">
-        <v>24.4296235700017</v>
+        <v>24.23564225432152</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>6.260525400183442</v>
+        <v>6.1349611213638</v>
       </c>
       <c r="F18">
         <v>36.31710943239624</v>
       </c>
       <c r="G18">
-        <v>0</v>
+        <v>2.021315110262668</v>
       </c>
       <c r="H18">
-        <v>40.71948938982258</v>
+        <v>0</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>40.79059009361399</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>11.66891766145854</v>
+        <v>0</v>
       </c>
       <c r="L18">
-        <v>19.1468580560591</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
+        <v>11.65080296061224</v>
+      </c>
+      <c r="M18">
+        <v>19.03669962124573</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>26.0743176155776</v>
+        <v>25.89927473721636</v>
       </c>
       <c r="C19">
-        <v>24.30631753516307</v>
+        <v>24.11326975099542</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>6.251189992650108</v>
+        <v>6.125253371769744</v>
       </c>
       <c r="F19">
         <v>36.15172494157628</v>
       </c>
       <c r="G19">
-        <v>0</v>
+        <v>2.022632963352424</v>
       </c>
       <c r="H19">
-        <v>40.55903770244149</v>
+        <v>0</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>40.63255472045326</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>11.62223953750566</v>
+        <v>0</v>
       </c>
       <c r="L19">
-        <v>19.05418951731041</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
+        <v>11.60444862967704</v>
+      </c>
+      <c r="M19">
+        <v>18.94440561114089</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>26.65722793176024</v>
+        <v>26.47869283780306</v>
       </c>
       <c r="C20">
-        <v>24.85942507077931</v>
+        <v>24.6621808788163</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>6.293494161539476</v>
+        <v>6.169221918240396</v>
       </c>
       <c r="F20">
         <v>36.89155697731405</v>
       </c>
       <c r="G20">
-        <v>0</v>
+        <v>2.016694864575306</v>
       </c>
       <c r="H20">
-        <v>41.28093232330099</v>
+        <v>0</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>41.3436419782976</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>11.86413510105096</v>
+        <v>0</v>
       </c>
       <c r="L20">
-        <v>19.46970075927977</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
+        <v>11.8262606536705</v>
+      </c>
+      <c r="M20">
+        <v>19.35821870170138</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>28.58168817163873</v>
+        <v>28.39134084359671</v>
       </c>
       <c r="C21">
-        <v>26.68962260985569</v>
+        <v>26.47827189884218</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>6.441079730873811</v>
+        <v>6.322188719334461</v>
       </c>
       <c r="F21">
         <v>39.30090300329764</v>
       </c>
       <c r="G21">
-        <v>0</v>
+        <v>1.996556348750814</v>
       </c>
       <c r="H21">
-        <v>43.70664039604117</v>
+        <v>0</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>43.73407389776561</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>12.72322932163143</v>
+        <v>0</v>
       </c>
       <c r="L21">
-        <v>20.84143364315808</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
+        <v>12.6816050923666</v>
+      </c>
+      <c r="M21">
+        <v>20.72398196431907</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>29.81805143807664</v>
+        <v>29.61981906536242</v>
       </c>
       <c r="C22">
-        <v>27.86889299741131</v>
+        <v>27.64819776972696</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>6.5420200162477</v>
+        <v>6.426469832193328</v>
       </c>
       <c r="F22">
         <v>40.81974568026784</v>
       </c>
       <c r="G22">
-        <v>0</v>
+        <v>1.983181541007057</v>
       </c>
       <c r="H22">
-        <v>45.29649803339331</v>
+        <v>0</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>45.30147171466674</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>13.2752038215373</v>
+        <v>0</v>
       </c>
       <c r="L22">
-        <v>21.72258509165007</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
+        <v>13.23099679321587</v>
+      </c>
+      <c r="M22">
+        <v>21.60097510350112</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>29.15985574400391</v>
+        <v>28.96585454516389</v>
       </c>
       <c r="C23">
-        <v>27.24074567329028</v>
+        <v>27.02505782807287</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>6.487705659198073</v>
+        <v>6.370389814820077</v>
       </c>
       <c r="F23">
         <v>40.01414225038423</v>
       </c>
       <c r="G23">
-        <v>0</v>
+        <v>1.990344641764601</v>
       </c>
       <c r="H23">
-        <v>44.44722459211876</v>
+        <v>0</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>44.46414386602027</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>12.9813523217077</v>
+        <v>0</v>
       </c>
       <c r="L23">
-        <v>21.2535068478158</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
+        <v>12.93853867710146</v>
+      </c>
+      <c r="M23">
+        <v>21.13414421021642</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>26.62535453674649</v>
+        <v>26.44701127418014</v>
       </c>
       <c r="C24">
-        <v>24.82916651827781</v>
+        <v>24.63215252604757</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>6.291151481588557</v>
+        <v>6.166788585827279</v>
       </c>
       <c r="F24">
-        <v>36.85121910575585</v>
+        <v>36.85121910575438</v>
       </c>
       <c r="G24">
-        <v>0</v>
+        <v>2.017021492231946</v>
       </c>
       <c r="H24">
-        <v>41.24129777838561</v>
+        <v>0</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>41.30459663399805</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>11.84990839920087</v>
+        <v>0</v>
       </c>
       <c r="L24">
-        <v>19.44698080391818</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
+        <v>11.8120935690931</v>
+      </c>
+      <c r="M24">
+        <v>19.33559286378965</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>23.77545460975787</v>
+        <v>23.61393284429058</v>
       </c>
       <c r="C25">
-        <v>22.13042544689729</v>
+        <v>21.95374267379961</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>6.095838808288403</v>
+        <v>5.963237446103808</v>
       </c>
       <c r="F25">
         <v>33.19272459127056</v>
       </c>
       <c r="G25">
-        <v>0</v>
+        <v>2.045327417562201</v>
       </c>
       <c r="H25">
-        <v>37.77739464615831</v>
+        <v>0</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>37.89432497462496</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>10.81202792253631</v>
+        <v>0</v>
       </c>
       <c r="L25">
-        <v>17.41554072276176</v>
+        <v>10.7998929716793</v>
+      </c>
+      <c r="M25">
+        <v>17.31200291319907</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_36/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_36/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,989 +409,1139 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>21.40677006272509</v>
+        <v>23.11420976340894</v>
       </c>
       <c r="C2">
-        <v>19.87613113923225</v>
+        <v>16.53366094139235</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>5.825052288541121</v>
+        <v>30.13188021528491</v>
       </c>
       <c r="F2">
         <v>30.27884324296193</v>
       </c>
       <c r="G2">
-        <v>2.066161724516447</v>
+        <v>2.041964311004427</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>35.363921122602</v>
+        <v>0</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>20.46730363632736</v>
       </c>
       <c r="L2">
-        <v>10.05443412260925</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>15.73514462010292</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>11.26377208372924</v>
+      </c>
+      <c r="O2">
+        <v>23.64336218960926</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.82687591247021</v>
+        <v>21.4318746782258</v>
       </c>
       <c r="C3">
-        <v>18.393664383183</v>
+        <v>15.34633617926755</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>5.737871112479601</v>
+        <v>27.84799828970413</v>
       </c>
       <c r="F3">
         <v>28.16301984326747</v>
       </c>
       <c r="G3">
-        <v>2.080432590712494</v>
+        <v>2.053663755383013</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>33.63292012934508</v>
+        <v>0</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>19.00340633089162</v>
       </c>
       <c r="L3">
-        <v>9.543817806340652</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>14.60625476426258</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>11.57009173754481</v>
+      </c>
+      <c r="O3">
+        <v>22.56312919117803</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.81299532191542</v>
+        <v>20.35009973768137</v>
       </c>
       <c r="C4">
-        <v>17.44433126779024</v>
+        <v>14.58428345761858</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>5.687304583376225</v>
+        <v>26.39117163997854</v>
       </c>
       <c r="F4">
         <v>26.79314218379242</v>
       </c>
       <c r="G4">
-        <v>2.089312315935301</v>
+        <v>2.06094720063928</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>32.56199449932542</v>
+        <v>0</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>18.06249670336305</v>
       </c>
       <c r="L4">
-        <v>9.227869822327545</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>13.8817136335016</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>11.76077432480044</v>
+      </c>
+      <c r="O4">
+        <v>21.91565709722584</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.3885051934889</v>
+        <v>19.89669292595445</v>
       </c>
       <c r="C5">
-        <v>17.04733210932027</v>
+        <v>14.26519599550241</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>5.667413199347748</v>
+        <v>25.78313958993477</v>
       </c>
       <c r="F5">
-        <v>26.21694803853475</v>
+        <v>26.21694803853472</v>
       </c>
       <c r="G5">
-        <v>2.092965980809792</v>
+        <v>2.063944799831552</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>32.12365179624395</v>
+        <v>0</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>17.66821840258226</v>
       </c>
       <c r="L5">
-        <v>9.098584535329246</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>13.57833908367054</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>11.83918540476403</v>
+      </c>
+      <c r="O5">
+        <v>21.65579377227994</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.31732655158883</v>
+        <v>19.82063734519653</v>
       </c>
       <c r="C6">
-        <v>16.98079003849463</v>
+        <v>14.21168915174405</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>5.664152585015475</v>
+        <v>25.68129096296833</v>
       </c>
       <c r="F6">
-        <v>26.1201820470107</v>
+        <v>26.12018204701068</v>
       </c>
       <c r="G6">
-        <v>2.093574941765195</v>
+        <v>2.064444452810131</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>32.05075348276796</v>
+        <v>0</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>17.60208603666465</v>
       </c>
       <c r="L6">
-        <v>9.077087452514716</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>13.52746754297259</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>11.85224967738837</v>
+      </c>
+      <c r="O6">
+        <v>21.61288584660397</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.8073167383023</v>
+        <v>20.34403622614105</v>
       </c>
       <c r="C7">
-        <v>17.43901862955873</v>
+        <v>14.58001502865845</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>5.687033464983265</v>
+        <v>26.38303048031305</v>
       </c>
       <c r="F7">
-        <v>26.78544435617556</v>
+        <v>26.78544435617551</v>
       </c>
       <c r="G7">
-        <v>2.089361441431298</v>
+        <v>2.060987502233481</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>32.55609047311526</v>
+        <v>0</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>18.05722359958332</v>
       </c>
       <c r="L7">
-        <v>9.226128271723265</v>
+        <v>0</v>
       </c>
       <c r="M7">
-        <v>13.87765536765341</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>11.76182887551573</v>
+      </c>
+      <c r="O7">
+        <v>21.9121362903238</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20.87092161428425</v>
+        <v>22.54408216280919</v>
       </c>
       <c r="C8">
-        <v>19.37289326818231</v>
+        <v>16.13097491635746</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>5.794358264894004</v>
+        <v>29.35529433695928</v>
       </c>
       <c r="F8">
         <v>29.56389055882486</v>
       </c>
       <c r="G8">
-        <v>2.07106152620367</v>
+        <v>2.04598034467893</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>34.76877826668158</v>
+        <v>0</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>19.97111204556661</v>
       </c>
       <c r="L8">
-        <v>9.878912433049445</v>
+        <v>0</v>
       </c>
       <c r="M8">
-        <v>15.35227886850663</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>11.36888303308142</v>
+      </c>
+      <c r="O8">
+        <v>23.26761047113606</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>24.58581719689149</v>
+        <v>26.48632276945264</v>
       </c>
       <c r="C9">
-        <v>22.87106601377195</v>
+        <v>18.9226152081964</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>6.029864306436322</v>
+        <v>34.78536568443233</v>
       </c>
       <c r="F9">
-        <v>34.45877994148617</v>
+        <v>34.45877994148619</v>
       </c>
       <c r="G9">
-        <v>2.035817030792017</v>
+        <v>2.017116011140387</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>39.04525051863919</v>
+        <v>0</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>23.40424421315871</v>
       </c>
       <c r="L9">
-        <v>11.13836911674157</v>
+        <v>0</v>
       </c>
       <c r="M9">
-        <v>18.00625531668421</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>10.61657598252477</v>
+      </c>
+      <c r="O9">
+        <v>26.05413395673826</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>27.138657398512</v>
+        <v>29.18047330896998</v>
       </c>
       <c r="C10">
-        <v>25.28810174533221</v>
+        <v>20.84136398722694</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>6.220667553599993</v>
+        <v>38.58809405020498</v>
       </c>
       <c r="F10">
-        <v>37.72874519847221</v>
+        <v>37.72874519847222</v>
       </c>
       <c r="G10">
-        <v>2.009839517576536</v>
+        <v>1.995878642833102</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>42.1612007148937</v>
+        <v>0</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>25.75376906743835</v>
       </c>
       <c r="L10">
-        <v>12.12138793647381</v>
+        <v>0</v>
       </c>
       <c r="M10">
-        <v>19.82952104509042</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>10.07180365984697</v>
+      </c>
+      <c r="O10">
+        <v>28.19145061954344</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>28.26874649144311</v>
+        <v>30.36887818002534</v>
       </c>
       <c r="C11">
-        <v>26.36167182274844</v>
+        <v>21.69103711668535</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>6.312034699843168</v>
+        <v>40.29335878586796</v>
       </c>
       <c r="F11">
-        <v>39.14805722232856</v>
+        <v>39.14805722232859</v>
       </c>
       <c r="G11">
-        <v>1.997872071869291</v>
+        <v>1.986106185500967</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>43.57897625631537</v>
+        <v>0</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>26.79117290930619</v>
       </c>
       <c r="L11">
-        <v>12.62677834199323</v>
+        <v>0</v>
       </c>
       <c r="M11">
-        <v>20.63645295383265</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>9.825109482821713</v>
+      </c>
+      <c r="O11">
+        <v>29.38689441886617</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>28.69291469261993</v>
+        <v>30.81422969725105</v>
       </c>
       <c r="C12">
-        <v>26.76521594618335</v>
+        <v>22.01002066557012</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>6.347364525226891</v>
+        <v>40.93723110164111</v>
       </c>
       <c r="F12">
-        <v>39.67592721363785</v>
+        <v>39.67592721363781</v>
       </c>
       <c r="G12">
-        <v>1.993305131919398</v>
+        <v>1.982378741887684</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>44.11664371939549</v>
+        <v>0</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>27.18011386136024</v>
       </c>
       <c r="L12">
-        <v>12.81647508492181</v>
+        <v>0</v>
       </c>
       <c r="M12">
-        <v>20.93928963245517</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>9.731822225768322</v>
+      </c>
+      <c r="O12">
+        <v>29.84126073804742</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>28.60171735907526</v>
+        <v>30.71851091007669</v>
       </c>
       <c r="C13">
-        <v>26.67842532476537</v>
+        <v>21.94143481907344</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>6.339721743864078</v>
+        <v>40.79861454122826</v>
       </c>
       <c r="F13">
         <v>39.5626640325822</v>
       </c>
       <c r="G13">
-        <v>1.994290511196706</v>
+        <v>1.983182902545681</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>44.00079802159262</v>
+        <v>0</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>27.09651089914281</v>
       </c>
       <c r="L13">
-        <v>12.77568982181113</v>
+        <v>0</v>
       </c>
       <c r="M13">
-        <v>20.87418078489841</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>9.751907795034581</v>
+      </c>
+      <c r="O13">
+        <v>29.74334869097938</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>28.3037140711292</v>
+        <v>30.40560681818986</v>
       </c>
       <c r="C14">
-        <v>26.39492689342042</v>
+        <v>21.71733195442489</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>6.314926171436457</v>
+        <v>40.34635726347948</v>
       </c>
       <c r="F14">
-        <v>39.19167637503948</v>
+        <v>39.19167637503946</v>
       </c>
       <c r="G14">
-        <v>1.997497138150477</v>
+        <v>1.985800133852362</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>43.62318961047418</v>
+        <v>0</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>26.82324555656602</v>
       </c>
       <c r="L14">
-        <v>12.64241656978148</v>
+        <v>0</v>
       </c>
       <c r="M14">
-        <v>20.66141903109771</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>9.817432181145067</v>
+      </c>
+      <c r="O14">
+        <v>29.42425159987534</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>28.12071079401683</v>
+        <v>30.21335785136604</v>
       </c>
       <c r="C15">
-        <v>26.22091041534878</v>
+        <v>21.57972047463147</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>6.299835848848763</v>
+        <v>40.06914815510711</v>
       </c>
       <c r="F15">
-        <v>38.96319309154516</v>
+        <v>38.96319309154517</v>
       </c>
       <c r="G15">
-        <v>1.999456267665586</v>
+        <v>1.987399412171077</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>43.39202208888283</v>
+        <v>0</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>26.65537483871379</v>
       </c>
       <c r="L15">
-        <v>12.56057376485947</v>
+        <v>0</v>
       </c>
       <c r="M15">
-        <v>20.53075715264742</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>9.857584137345885</v>
+      </c>
+      <c r="O15">
+        <v>29.22894252208844</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>27.06423360367302</v>
+        <v>29.10211498792074</v>
       </c>
       <c r="C16">
-        <v>25.21747917062779</v>
+        <v>20.78541520441231</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>6.214794412405427</v>
+        <v>38.47629003942018</v>
       </c>
       <c r="F16">
         <v>37.6346354302881</v>
       </c>
       <c r="G16">
-        <v>2.010617498539327</v>
+        <v>1.996514178038246</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>42.06861014671014</v>
+        <v>0</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>25.68539026792546</v>
       </c>
       <c r="L16">
-        <v>12.08810575592147</v>
+        <v>0</v>
       </c>
       <c r="M16">
-        <v>19.7763746175984</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>10.08794527594918</v>
+      </c>
+      <c r="O16">
+        <v>28.126838889258</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>26.40859451379856</v>
+        <v>28.41132342293809</v>
       </c>
       <c r="C17">
-        <v>24.59574274850977</v>
+        <v>20.29256669809907</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>6.16384245453244</v>
+        <v>37.49389637304672</v>
       </c>
       <c r="F17">
-        <v>36.80228778268389</v>
+        <v>36.80228778268393</v>
       </c>
       <c r="G17">
-        <v>2.017417255800826</v>
+        <v>2.00207020700982</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>41.25727581876497</v>
+        <v>0</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>25.08269469863063</v>
       </c>
       <c r="L17">
-        <v>11.794914765419</v>
+        <v>0</v>
       </c>
       <c r="M17">
-        <v>19.30815687252731</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>10.22952516180572</v>
+      </c>
+      <c r="O17">
+        <v>27.56343474471755</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>26.02850077235949</v>
+        <v>28.01045220040005</v>
       </c>
       <c r="C18">
-        <v>24.23564225432152</v>
+        <v>20.00687254832374</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>6.1349611213638</v>
+        <v>36.92641482313444</v>
       </c>
       <c r="F18">
-        <v>36.31710943239624</v>
+        <v>36.31710943239623</v>
       </c>
       <c r="G18">
-        <v>2.021315110262668</v>
+        <v>2.005256152584543</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>40.79059009361399</v>
+        <v>0</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>24.73304122503524</v>
       </c>
       <c r="L18">
-        <v>11.65080296061224</v>
+        <v>0</v>
       </c>
       <c r="M18">
-        <v>19.03669962124573</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>10.31106521922498</v>
+      </c>
+      <c r="O18">
+        <v>27.2416650296536</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>25.89927473721636</v>
+        <v>27.87409645240324</v>
       </c>
       <c r="C19">
-        <v>24.11326975099542</v>
+        <v>19.9097445617799</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>6.125253371769744</v>
+        <v>36.73381199650161</v>
       </c>
       <c r="F19">
-        <v>36.15172494157628</v>
+        <v>36.15172494150063</v>
       </c>
       <c r="G19">
-        <v>2.022632963352424</v>
+        <v>2.006333482188088</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>40.63255472045326</v>
+        <v>0</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>24.61412258228296</v>
       </c>
       <c r="L19">
-        <v>11.60444862967704</v>
+        <v>0</v>
       </c>
       <c r="M19">
-        <v>18.94440561114089</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>10.33869289417576</v>
+      </c>
+      <c r="O19">
+        <v>27.13309514065071</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>26.47869283780306</v>
+        <v>28.48522188912495</v>
       </c>
       <c r="C20">
-        <v>24.6621808788163</v>
+        <v>20.34525736252916</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>6.169221918240396</v>
+        <v>37.59871489161741</v>
       </c>
       <c r="F20">
-        <v>36.89155697731405</v>
+        <v>36.891556977314</v>
       </c>
       <c r="G20">
-        <v>2.016694864575306</v>
+        <v>2.001479837276126</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>41.3436419782976</v>
+        <v>0</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>25.14715895729995</v>
       </c>
       <c r="L20">
-        <v>11.8262606536705</v>
+        <v>0</v>
       </c>
       <c r="M20">
-        <v>19.35821870170138</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <v>10.21444294433902</v>
+      </c>
+      <c r="O20">
+        <v>27.62316943298511</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>28.39134084359671</v>
+        <v>30.49763510163266</v>
       </c>
       <c r="C21">
-        <v>26.47827189884218</v>
+        <v>21.78322650189117</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>6.322188719334461</v>
+        <v>40.47923195762254</v>
       </c>
       <c r="F21">
-        <v>39.30090300329764</v>
+        <v>39.30090300329766</v>
       </c>
       <c r="G21">
-        <v>1.996556348750814</v>
+        <v>1.985032214693357</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>43.73407389776561</v>
+        <v>0</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>26.90361059905273</v>
       </c>
       <c r="L21">
-        <v>12.6816050923666</v>
+        <v>0</v>
       </c>
       <c r="M21">
-        <v>20.72398196431907</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>9.798182695208366</v>
+      </c>
+      <c r="O21">
+        <v>29.51794570102007</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>29.61981906536242</v>
+        <v>31.78604736233002</v>
       </c>
       <c r="C22">
-        <v>27.64819776972696</v>
+        <v>22.70723071627285</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>6.426469832193328</v>
+        <v>42.351951534093</v>
       </c>
       <c r="F22">
-        <v>40.81974568026784</v>
+        <v>40.81974568026791</v>
       </c>
       <c r="G22">
-        <v>1.983181541007057</v>
+        <v>1.974119646898928</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>45.30147171466674</v>
+        <v>0</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>28.02919136474682</v>
       </c>
       <c r="L22">
-        <v>13.23099679321587</v>
+        <v>0</v>
       </c>
       <c r="M22">
-        <v>21.60097510350112</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <v>9.526894382059842</v>
+      </c>
+      <c r="O22">
+        <v>30.84320460609685</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>28.96585454516389</v>
+        <v>31.10059266811016</v>
       </c>
       <c r="C23">
-        <v>27.02505782807287</v>
+        <v>22.21529993764188</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>6.370389814820077</v>
+        <v>41.35269649417842</v>
       </c>
       <c r="F23">
-        <v>40.01414225038423</v>
+        <v>40.01414225038425</v>
       </c>
       <c r="G23">
-        <v>1.990344641764601</v>
+        <v>1.979962990142912</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>44.46414386602027</v>
+        <v>0</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>27.43025778650249</v>
       </c>
       <c r="L23">
-        <v>12.93853867710146</v>
+        <v>0</v>
       </c>
       <c r="M23">
-        <v>21.13414421021642</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <v>9.671621225106909</v>
+      </c>
+      <c r="O23">
+        <v>30.13501744686016</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>26.44701127418014</v>
+        <v>28.45182404726469</v>
       </c>
       <c r="C24">
-        <v>24.63215252604757</v>
+        <v>20.32144327070324</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>6.166788585827279</v>
+        <v>37.55133493991548</v>
       </c>
       <c r="F24">
-        <v>36.85121910575438</v>
+        <v>36.85121910575585</v>
       </c>
       <c r="G24">
-        <v>2.017021492231946</v>
+        <v>2.001746768466984</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>41.30459663399805</v>
+        <v>0</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>25.11802454028195</v>
       </c>
       <c r="L24">
-        <v>11.8120935690931</v>
+        <v>0</v>
       </c>
       <c r="M24">
-        <v>19.33559286378965</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <v>10.22126116397519</v>
+      </c>
+      <c r="O24">
+        <v>27.5961567654083</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>23.61393284429058</v>
+        <v>25.45734354549012</v>
       </c>
       <c r="C25">
-        <v>21.95374267379961</v>
+        <v>18.19226081097027</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>5.963237446103808</v>
+        <v>33.35381246360183</v>
       </c>
       <c r="F25">
-        <v>33.19272459127056</v>
+        <v>33.1927245912706</v>
       </c>
       <c r="G25">
-        <v>2.045327417562201</v>
+        <v>2.024899248106882</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>37.89432497462496</v>
+        <v>0</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>22.50764182471286</v>
       </c>
       <c r="L25">
-        <v>10.7998929716793</v>
+        <v>0</v>
       </c>
       <c r="M25">
-        <v>17.31200291319907</v>
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>10.81847797490966</v>
+      </c>
+      <c r="O25">
+        <v>25.28575547033483</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_36/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_36/res_line/loading_percent.xlsx
@@ -421,34 +421,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>23.11420976340894</v>
+        <v>14.31500916577972</v>
       </c>
       <c r="C2">
-        <v>16.53366094139235</v>
+        <v>8.576467395761052</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>30.13188021528491</v>
+        <v>29.57701765066989</v>
       </c>
       <c r="F2">
         <v>30.27884324296193</v>
       </c>
       <c r="G2">
-        <v>2.041964311004427</v>
+        <v>13.61659900730781</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>7.060588168266646</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>10.13744158961943</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>20.46730363632736</v>
+        <v>12.99503436716057</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -457,10 +457,10 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>11.26377208372924</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>23.64336218960926</v>
+        <v>10.40528454659197</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,34 +468,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>21.4318746782258</v>
+        <v>13.46050637894241</v>
       </c>
       <c r="C3">
-        <v>15.34633617926755</v>
+        <v>8.174187649147168</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>27.84799828970413</v>
+        <v>27.45823426395823</v>
       </c>
       <c r="F3">
         <v>28.16301984326747</v>
       </c>
       <c r="G3">
-        <v>2.053663755383013</v>
+        <v>13.78195119525343</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>7.210924183332973</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>10.47689632750408</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>19.00340633089162</v>
+        <v>12.32218406031568</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -504,10 +504,10 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>11.57009173754481</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>22.56312919117803</v>
+        <v>10.64195755337684</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,34 +515,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>20.35009973768137</v>
+        <v>12.90714087711281</v>
       </c>
       <c r="C4">
-        <v>14.58428345761858</v>
+        <v>7.917088417151237</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>26.39117163997854</v>
+        <v>26.09217075148914</v>
       </c>
       <c r="F4">
         <v>26.79314218379242</v>
       </c>
       <c r="G4">
-        <v>2.06094720063928</v>
+        <v>13.91913696119886</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>7.307887746280313</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>10.69263038751388</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>18.06249670336305</v>
+        <v>11.88955602302919</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -551,10 +551,10 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>11.76077432480044</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>21.91565709722584</v>
+        <v>10.79962359319466</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,34 +562,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>19.89669292595445</v>
+        <v>12.67447194798412</v>
       </c>
       <c r="C5">
-        <v>14.26519599550241</v>
+        <v>7.809858998904423</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>25.78313958993477</v>
+        <v>25.51885606460757</v>
       </c>
       <c r="F5">
-        <v>26.21694803853472</v>
+        <v>26.21694803853475</v>
       </c>
       <c r="G5">
-        <v>2.063944799831552</v>
+        <v>13.98330404122614</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>7.348538118035637</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>10.78235947592666</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>17.66821840258226</v>
+        <v>11.70845592077644</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -598,10 +598,10 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>11.83918540476403</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>21.65579377227994</v>
+        <v>10.86679513244033</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,34 +609,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>19.82063734519653</v>
+        <v>12.6354063145103</v>
       </c>
       <c r="C6">
-        <v>14.21168915174405</v>
+        <v>7.791907734828983</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>25.68129096296833</v>
+        <v>25.42264573489965</v>
       </c>
       <c r="F6">
-        <v>26.12018204701068</v>
+        <v>26.1201820470107</v>
       </c>
       <c r="G6">
-        <v>2.064444452810131</v>
+        <v>13.99443783696867</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>7.355355842891599</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>10.79736807924844</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>17.60208603666465</v>
+        <v>11.67809787513609</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -645,10 +645,10 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>11.85224967738837</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>21.61288584660397</v>
+        <v>10.87812036862926</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,34 +656,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>20.34403622614105</v>
+        <v>12.90403196775169</v>
       </c>
       <c r="C7">
-        <v>14.58001502865845</v>
+        <v>7.915652124814711</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>26.38303048031305</v>
+        <v>26.08450650603631</v>
       </c>
       <c r="F7">
-        <v>26.78544435617551</v>
+        <v>26.78544435617556</v>
       </c>
       <c r="G7">
-        <v>2.060987502233481</v>
+        <v>13.91996979961544</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>7.308431409543564</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>10.69383317738473</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>18.05722359958332</v>
+        <v>11.88713292991468</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -692,10 +692,10 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>11.76182887551573</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>21.9121362903238</v>
+        <v>10.80051789170274</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,34 +703,34 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>22.54408216280919</v>
+        <v>14.02635582707048</v>
       </c>
       <c r="C8">
-        <v>16.13097491635746</v>
+        <v>8.439900260104558</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>29.35529433695928</v>
+        <v>28.85981816335909</v>
       </c>
       <c r="F8">
         <v>29.56389055882486</v>
       </c>
       <c r="G8">
-        <v>2.04598034467893</v>
+        <v>13.66578253898637</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>7.111435568588462</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>10.25295351255163</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>19.97111204556661</v>
+        <v>12.767135633386</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -739,10 +739,10 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>11.36888303308142</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>23.26761047113606</v>
+        <v>10.48420971180267</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,34 +750,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>26.48632276945264</v>
+        <v>15.99832686191369</v>
       </c>
       <c r="C9">
-        <v>18.9226152081964</v>
+        <v>9.385085930982202</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>34.78536568443233</v>
+        <v>33.79781990551681</v>
       </c>
       <c r="F9">
-        <v>34.45877994148619</v>
+        <v>34.4587799414611</v>
       </c>
       <c r="G9">
-        <v>2.017116011140387</v>
+        <v>13.48220623917625</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>6.763879271087661</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>9.447794033030901</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>23.40424421315871</v>
+        <v>14.33479533074626</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -786,10 +786,10 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>10.61657598252477</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>26.05413395673826</v>
+        <v>9.971292269792052</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,34 +797,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>29.18047330896998</v>
+        <v>17.30704232131477</v>
       </c>
       <c r="C10">
-        <v>20.84136398722694</v>
+        <v>10.02628778298224</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>38.58809405020498</v>
+        <v>37.13669834302789</v>
       </c>
       <c r="F10">
-        <v>37.72874519847222</v>
+        <v>37.72874519847217</v>
       </c>
       <c r="G10">
-        <v>1.995878642833102</v>
+        <v>13.58204437187554</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>6.535145976876569</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>8.895339146067537</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>25.75376906743835</v>
+        <v>15.38710492809902</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -833,10 +833,10 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>10.07180365984697</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>28.19145061954344</v>
+        <v>9.674745838184981</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,34 +844,34 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>30.36887818002534</v>
+        <v>17.87211689525816</v>
       </c>
       <c r="C11">
-        <v>21.69103711668535</v>
+        <v>10.30609656431069</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>40.29335878586796</v>
+        <v>38.59733134209193</v>
       </c>
       <c r="F11">
-        <v>39.14805722232859</v>
+        <v>39.14805722232856</v>
       </c>
       <c r="G11">
-        <v>1.986106185500967</v>
+        <v>13.68683370478908</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>6.437699271365941</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>8.653497661354633</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>26.79117290930619</v>
+        <v>15.84389784175385</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -880,10 +880,10 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>9.825109482821713</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>29.38689441886617</v>
+        <v>9.561102600608333</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,34 +891,34 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>30.81422969725105</v>
+        <v>18.08176477251198</v>
       </c>
       <c r="C12">
-        <v>22.01002066557012</v>
+        <v>10.41033022693404</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>40.93723110164111</v>
+        <v>39.1424665656339</v>
       </c>
       <c r="F12">
-        <v>39.67592721363781</v>
+        <v>39.67592721363786</v>
       </c>
       <c r="G12">
-        <v>1.982378741887684</v>
+        <v>13.73565312338072</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>6.401833182645412</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>8.563399580912881</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>27.18011386136024</v>
+        <v>16.01371143299716</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -927,10 +927,10 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>9.731822225768322</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>29.84126073804742</v>
+        <v>9.521488410241341</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,34 +938,34 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>30.71851091007669</v>
+        <v>18.0368057061287</v>
       </c>
       <c r="C13">
-        <v>21.94143481907344</v>
+        <v>10.38795846722468</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>40.79861454122826</v>
+        <v>39.02540984546361</v>
       </c>
       <c r="F13">
         <v>39.5626640325822</v>
       </c>
       <c r="G13">
-        <v>1.983182902545681</v>
+        <v>13.72472395105283</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>6.409510059787422</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>8.58273562464862</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>27.09651089914281</v>
+        <v>15.97727985320031</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -974,10 +974,10 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>9.751907795034581</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>29.74334869097938</v>
+        <v>9.529861764460826</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,34 +985,34 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>30.40560681818986</v>
+        <v>17.88945146846448</v>
       </c>
       <c r="C14">
-        <v>21.71733195442489</v>
+        <v>10.31470653748843</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>40.34635726347948</v>
+        <v>38.64233734551868</v>
       </c>
       <c r="F14">
-        <v>39.19167637503946</v>
+        <v>39.19167637503948</v>
       </c>
       <c r="G14">
-        <v>1.985800133852362</v>
+        <v>13.6906638410304</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>6.434727270613797</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>8.646054727868673</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>26.82324555656602</v>
+        <v>15.85793195664435</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1021,10 +1021,10 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>9.817432181145067</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>29.42425159987534</v>
+        <v>9.557772767322234</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,34 +1032,34 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>30.21335785136604</v>
+        <v>17.79862907286165</v>
       </c>
       <c r="C15">
-        <v>21.57972047463147</v>
+        <v>10.26961280402099</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>40.06914815510711</v>
+        <v>38.40666833852494</v>
       </c>
       <c r="F15">
-        <v>38.96319309154517</v>
+        <v>38.96319309123409</v>
       </c>
       <c r="G15">
-        <v>1.987399412171077</v>
+        <v>13.67100741095222</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>6.450311066539712</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>8.685036645664553</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>26.65537483871379</v>
+        <v>15.78441567076383</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1068,10 +1068,10 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>9.857584137345885</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>29.22894252208844</v>
+        <v>9.575325841392306</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,34 +1079,34 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>29.10211498792074</v>
+        <v>17.26950573981001</v>
       </c>
       <c r="C16">
-        <v>20.78541520441231</v>
+        <v>10.00776104794973</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>38.47629003942018</v>
+        <v>37.04010396336437</v>
       </c>
       <c r="F16">
-        <v>37.6346354302881</v>
+        <v>37.63463543028809</v>
       </c>
       <c r="G16">
-        <v>1.996514178038246</v>
+        <v>13.57644411142899</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>6.541654227569274</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>8.911344175989953</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>25.68539026792546</v>
+        <v>15.35681016437907</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1115,10 +1115,10 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>10.08794527594918</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>28.126838889258</v>
+        <v>9.682630683696308</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,34 +1126,34 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>28.41132342293809</v>
+        <v>16.93716439578418</v>
       </c>
       <c r="C17">
-        <v>20.29256669809907</v>
+        <v>9.84406713975279</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>37.49389637304672</v>
+        <v>36.18711757256072</v>
       </c>
       <c r="F17">
-        <v>36.80228778268393</v>
+        <v>36.8022877826839</v>
       </c>
       <c r="G17">
-        <v>2.00207020700982</v>
+        <v>13.53409261026051</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>6.59943841009839</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>9.052677992524757</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>25.08269469863063</v>
+        <v>15.08886348468743</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1162,10 +1162,10 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>10.22952516180572</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>27.56343474471755</v>
+        <v>9.754150445675148</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,34 +1173,34 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>28.01045220040005</v>
+        <v>16.74315993490664</v>
       </c>
       <c r="C18">
-        <v>20.00687254832374</v>
+        <v>9.748797133966946</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>36.92641482313444</v>
+        <v>35.69099457252564</v>
       </c>
       <c r="F18">
-        <v>36.31710943239623</v>
+        <v>36.31710943239618</v>
       </c>
       <c r="G18">
-        <v>2.005256152584543</v>
+        <v>13.51529034768297</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>6.633290209517451</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>9.134852191524265</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>24.73304122503524</v>
+        <v>14.9326855943071</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1209,10 +1209,10 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>10.31106521922498</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>27.2416650296536</v>
+        <v>9.797263611770431</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,34 +1220,34 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>27.87409645240324</v>
+        <v>16.67698334409027</v>
       </c>
       <c r="C19">
-        <v>19.9097445617799</v>
+        <v>9.716349036586424</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>36.73381199650161</v>
+        <v>35.52205828935212</v>
       </c>
       <c r="F19">
-        <v>36.15172494150063</v>
+        <v>36.15172494150058</v>
       </c>
       <c r="G19">
-        <v>2.006333482188088</v>
+        <v>13.50985901872748</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>6.644855247160502</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>9.162823444789929</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>24.61412258228296</v>
+        <v>14.87945289009509</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1256,10 +1256,10 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>10.33869289417576</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>27.13309514065071</v>
+        <v>9.812190034440494</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,34 +1267,34 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>28.48522188912495</v>
+        <v>16.97283760624582</v>
       </c>
       <c r="C20">
-        <v>20.34525736252916</v>
+        <v>9.861608447822126</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>37.59871489161741</v>
+        <v>36.2784866854095</v>
       </c>
       <c r="F20">
-        <v>36.891556977314</v>
+        <v>36.89155697731404</v>
       </c>
       <c r="G20">
-        <v>2.001479837276126</v>
+        <v>13.53802123066217</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>6.593222871992964</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>9.037540644046191</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>25.14715895729995</v>
+        <v>15.11760041517073</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1303,10 +1303,10 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>10.21444294433902</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>27.62316943298511</v>
+        <v>9.746329926013152</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,34 +1314,34 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>30.49763510163266</v>
+        <v>17.93285040380617</v>
       </c>
       <c r="C21">
-        <v>21.78322650189117</v>
+        <v>10.33626927097277</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>40.47923195762254</v>
+        <v>38.75506808191103</v>
       </c>
       <c r="F21">
         <v>39.30090300329766</v>
       </c>
       <c r="G21">
-        <v>1.985032214693357</v>
+        <v>13.70041576777189</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>6.427291532924094</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>8.627415025790379</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>26.90361059905273</v>
+        <v>15.89307324866252</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1350,10 +1350,10 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>9.798182695208366</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>29.51794570102007</v>
+        <v>9.549478738755901</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,34 +1361,34 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>31.78604736233002</v>
+        <v>18.53502892193726</v>
       </c>
       <c r="C22">
-        <v>22.70723071627285</v>
+        <v>10.63643864058424</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>42.351951534093</v>
+        <v>40.32738798939172</v>
       </c>
       <c r="F22">
-        <v>40.81974568026791</v>
+        <v>40.81974568026789</v>
       </c>
       <c r="G22">
-        <v>1.974119646898928</v>
+        <v>13.86002680942059</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>6.324927417830847</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>8.368094459687418</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>28.02919136474682</v>
+        <v>16.381448981715</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1397,10 +1397,10 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>9.526894382059842</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>30.84320460609685</v>
+        <v>9.440953453904102</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,34 +1408,34 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>31.10059266811016</v>
+        <v>18.21593664153798</v>
       </c>
       <c r="C23">
-        <v>22.21529993764188</v>
+        <v>10.47715498068095</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>41.35269649417842</v>
+        <v>39.49230256716857</v>
       </c>
       <c r="F23">
-        <v>40.01414225038425</v>
+        <v>40.01414225038419</v>
       </c>
       <c r="G23">
-        <v>1.979962990142912</v>
+        <v>13.76977114466085</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>6.378972855131096</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>8.505651936292749</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>27.43025778650249</v>
+        <v>16.12248259941492</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1444,10 +1444,10 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>9.671621225106909</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>30.13501744686016</v>
+        <v>9.496904468406902</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,34 +1455,34 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>28.45182404726469</v>
+        <v>16.95671889720506</v>
       </c>
       <c r="C24">
-        <v>20.32144327070324</v>
+        <v>9.85368163488436</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>37.55133493991548</v>
+        <v>36.23719658616809</v>
       </c>
       <c r="F24">
-        <v>36.85121910575585</v>
+        <v>36.8512191057543</v>
       </c>
       <c r="G24">
-        <v>2.001746768466984</v>
+        <v>13.53622787297148</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>6.596030957903462</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>9.044381383829286</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>25.11802454028195</v>
+        <v>15.10461508774011</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1491,10 +1491,10 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>10.22126116397519</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>27.5961567654083</v>
+        <v>9.749859394476246</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,34 +1502,34 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>25.45734354549012</v>
+        <v>15.48946625098586</v>
       </c>
       <c r="C25">
-        <v>18.19226081097027</v>
+        <v>9.13858612175143</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>33.35381246360183</v>
+        <v>32.51413741216054</v>
       </c>
       <c r="F25">
-        <v>33.1927245912706</v>
+        <v>33.19272459126715</v>
       </c>
       <c r="G25">
-        <v>2.024899248106882</v>
+        <v>13.49366275405828</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>6.853475329848758</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>9.659010748003292</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>22.50764182471286</v>
+        <v>13.92800532450304</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1538,10 +1538,10 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>10.81847797490966</v>
+        <v>0</v>
       </c>
       <c r="O25">
-        <v>25.28575547033483</v>
+        <v>10.09713441112161</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_36/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_36/res_line/loading_percent.xlsx
@@ -421,34 +421,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>14.31500916577972</v>
+        <v>8.593669337425428</v>
       </c>
       <c r="C2">
-        <v>8.576467395761052</v>
+        <v>6.459742127343147</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>29.57701765066989</v>
+        <v>16.53736111016295</v>
       </c>
       <c r="F2">
-        <v>30.27884324296193</v>
+        <v>16.86991607391245</v>
       </c>
       <c r="G2">
-        <v>13.61659900730781</v>
+        <v>20.20755339058882</v>
       </c>
       <c r="H2">
-        <v>7.060588168266646</v>
+        <v>12.30318198815509</v>
       </c>
       <c r="I2">
-        <v>10.13744158961943</v>
+        <v>17.37289335160082</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>12.99503436716057</v>
+        <v>9.239354112517319</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>10.40528454659197</v>
+        <v>17.55997275444416</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,34 +468,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>13.46050637894241</v>
+        <v>8.170753776752328</v>
       </c>
       <c r="C3">
-        <v>8.174187649147168</v>
+        <v>6.285196716249302</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>27.45823426395823</v>
+        <v>15.59869541374222</v>
       </c>
       <c r="F3">
-        <v>28.16301984326747</v>
+        <v>15.89584955866815</v>
       </c>
       <c r="G3">
-        <v>13.78195119525343</v>
+        <v>20.38590023328348</v>
       </c>
       <c r="H3">
-        <v>7.210924183332973</v>
+        <v>12.36479282231346</v>
       </c>
       <c r="I3">
-        <v>10.47689632750408</v>
+        <v>17.49469821902562</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>12.32218406031568</v>
+        <v>8.923135850748967</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>10.64195755337684</v>
+        <v>17.67549190488816</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,34 +515,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>12.90714087711281</v>
+        <v>7.899586619791833</v>
       </c>
       <c r="C4">
-        <v>7.917088417151237</v>
+        <v>6.174879816275154</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>26.09217075148914</v>
+        <v>14.99705907009783</v>
       </c>
       <c r="F4">
-        <v>26.79314218379242</v>
+        <v>15.26997757108489</v>
       </c>
       <c r="G4">
-        <v>13.91913696119886</v>
+        <v>20.50464095743429</v>
       </c>
       <c r="H4">
-        <v>7.307887746280313</v>
+        <v>12.40479087960728</v>
       </c>
       <c r="I4">
-        <v>10.69263038751388</v>
+        <v>17.57338720478943</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>11.88955602302919</v>
+        <v>8.721760339334384</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>10.79962359319466</v>
+        <v>17.75090962806147</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,34 +562,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>12.67447194798412</v>
+        <v>7.78631206904909</v>
       </c>
       <c r="C5">
-        <v>7.809858998904423</v>
+        <v>6.129180095764659</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>25.51885606460757</v>
+        <v>14.74579530734558</v>
       </c>
       <c r="F5">
-        <v>26.21694803853475</v>
+        <v>15.008197319934</v>
       </c>
       <c r="G5">
-        <v>13.98330404122614</v>
+        <v>20.55533321542663</v>
       </c>
       <c r="H5">
-        <v>7.348538118035637</v>
+        <v>12.42163634939939</v>
       </c>
       <c r="I5">
-        <v>10.78235947592666</v>
+        <v>17.60643617724406</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>11.70845592077644</v>
+        <v>8.637965723695967</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>10.86679513244033</v>
+        <v>17.78277036789328</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,34 +609,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>12.6354063145103</v>
+        <v>7.767339382544004</v>
       </c>
       <c r="C6">
-        <v>7.791907734828983</v>
+        <v>6.12154813276558</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>25.42264573489965</v>
+        <v>14.70371407509736</v>
       </c>
       <c r="F6">
-        <v>26.1201820470107</v>
+        <v>14.96433081551589</v>
       </c>
       <c r="G6">
-        <v>13.99443783696867</v>
+        <v>20.56388929532758</v>
       </c>
       <c r="H6">
-        <v>7.355355842891599</v>
+        <v>12.4244665176895</v>
       </c>
       <c r="I6">
-        <v>10.79736807924844</v>
+        <v>17.61198333266621</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>11.67809787513609</v>
+        <v>8.623949628769564</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>10.87812036862926</v>
+        <v>17.78812887679989</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,34 +656,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>12.90403196775169</v>
+        <v>7.898070010391931</v>
       </c>
       <c r="C7">
-        <v>7.915652124814711</v>
+        <v>6.174266445467326</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>26.08450650603631</v>
+        <v>14.99369471305475</v>
       </c>
       <c r="F7">
-        <v>26.78544435617556</v>
+        <v>15.26647399323133</v>
       </c>
       <c r="G7">
-        <v>13.91996979961544</v>
+        <v>20.50531530365419</v>
       </c>
       <c r="H7">
-        <v>7.308431409543564</v>
+        <v>12.40501585224835</v>
       </c>
       <c r="I7">
-        <v>10.69383317738473</v>
+        <v>17.57382893398889</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>11.88713292991468</v>
+        <v>8.720637155516709</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>10.80051789170274</v>
+        <v>17.75133474995154</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,34 +703,34 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>14.02635582707048</v>
+        <v>8.450299174778579</v>
       </c>
       <c r="C8">
-        <v>8.439900260104558</v>
+        <v>6.400238346091272</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>28.85981816335909</v>
+        <v>16.21910351277491</v>
       </c>
       <c r="F8">
-        <v>29.56389055882486</v>
+        <v>16.5399640634477</v>
       </c>
       <c r="G8">
-        <v>13.66578253898637</v>
+        <v>20.26711987467334</v>
       </c>
       <c r="H8">
-        <v>7.111435568588462</v>
+        <v>12.32397562863803</v>
       </c>
       <c r="I8">
-        <v>10.25295351255163</v>
+        <v>17.41408324891855</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>12.767135633386</v>
+        <v>9.131866342995053</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>10.48420971180267</v>
+        <v>17.59887139140611</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,34 +750,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>15.99832686191369</v>
+        <v>9.441382406846031</v>
       </c>
       <c r="C9">
-        <v>9.385085930982202</v>
+        <v>6.816557071391833</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>33.79781990551681</v>
+        <v>18.51012740470379</v>
       </c>
       <c r="F9">
-        <v>34.4587799414611</v>
+        <v>19.00274580682531</v>
       </c>
       <c r="G9">
-        <v>13.48220623917625</v>
+        <v>19.87410293913234</v>
       </c>
       <c r="H9">
-        <v>6.763879271087661</v>
+        <v>12.18223729891341</v>
       </c>
       <c r="I9">
-        <v>9.447794033030901</v>
+        <v>17.13168643409617</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>14.33479533074626</v>
+        <v>9.877857249889027</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>9.971292269792052</v>
+        <v>17.33556367659569</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,34 +797,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>17.30704232131477</v>
+        <v>10.16174458786111</v>
       </c>
       <c r="C10">
-        <v>10.02628778298224</v>
+        <v>7.103841505207825</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>37.13669834302789</v>
+        <v>20.15008337421779</v>
       </c>
       <c r="F10">
-        <v>37.72874519847217</v>
+        <v>20.67494806633232</v>
       </c>
       <c r="G10">
-        <v>13.58204437187554</v>
+        <v>19.63164089995034</v>
       </c>
       <c r="H10">
-        <v>6.535145976876569</v>
+        <v>12.08853877584501</v>
       </c>
       <c r="I10">
-        <v>8.895339146067537</v>
+        <v>16.9429078509335</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>15.38710492809902</v>
+        <v>10.3854215066119</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>9.674745838184981</v>
+        <v>17.16394116581485</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,34 +844,34 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>17.87211689525816</v>
+        <v>10.47155207736119</v>
       </c>
       <c r="C11">
-        <v>10.30609656431069</v>
+        <v>7.230092529560977</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>38.59733134209193</v>
+        <v>20.85367963826348</v>
       </c>
       <c r="F11">
-        <v>39.14805722232856</v>
+        <v>21.3917225636224</v>
       </c>
       <c r="G11">
-        <v>13.68683370478908</v>
+        <v>19.53163697325141</v>
       </c>
       <c r="H11">
-        <v>6.437699271365941</v>
+        <v>12.04817162327284</v>
       </c>
       <c r="I11">
-        <v>8.653497661354633</v>
+        <v>16.86106356455551</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>15.84389784175385</v>
+        <v>10.60689873039724</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>9.561102600608333</v>
+        <v>17.0906258149521</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,34 +891,34 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>18.08176477251198</v>
+        <v>10.58628301183519</v>
       </c>
       <c r="C12">
-        <v>10.41033022693404</v>
+        <v>7.277232893459064</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>39.1424665656339</v>
+        <v>21.11404780258093</v>
       </c>
       <c r="F12">
-        <v>39.67592721363786</v>
+        <v>21.65686569030329</v>
       </c>
       <c r="G12">
-        <v>13.73565312338072</v>
+        <v>19.49526918990421</v>
       </c>
       <c r="H12">
-        <v>6.401833182645412</v>
+        <v>12.03320970117831</v>
       </c>
       <c r="I12">
-        <v>8.563399580912881</v>
+        <v>16.83064941218857</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>16.01371143299716</v>
+        <v>10.68936842927858</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>9.521488410241341</v>
+        <v>17.06354921121915</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,34 +938,34 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>18.0368057061287</v>
+        <v>10.56168886112699</v>
       </c>
       <c r="C13">
-        <v>10.38795846722468</v>
+        <v>7.267110538891091</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>39.02540984546361</v>
+        <v>21.05824223985627</v>
       </c>
       <c r="F13">
-        <v>39.5626640325822</v>
+        <v>21.60004134736742</v>
       </c>
       <c r="G13">
-        <v>13.72472395105283</v>
+        <v>19.50303451866958</v>
       </c>
       <c r="H13">
-        <v>6.409510059787422</v>
+        <v>12.03641760211409</v>
       </c>
       <c r="I13">
-        <v>8.58273562464862</v>
+        <v>16.83717393505312</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>15.97727985320031</v>
+        <v>10.67166997371169</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>9.529861764460826</v>
+        <v>17.06935007906567</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,34 +985,34 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>17.88945146846448</v>
+        <v>10.48104296100208</v>
       </c>
       <c r="C14">
-        <v>10.31470653748843</v>
+        <v>7.233984349135699</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>38.64233734551868</v>
+        <v>20.8752217190855</v>
       </c>
       <c r="F14">
-        <v>39.19167637503948</v>
+        <v>21.4136618050453</v>
       </c>
       <c r="G14">
-        <v>13.6906638410304</v>
+        <v>19.52861475755424</v>
       </c>
       <c r="H14">
-        <v>6.434727270613797</v>
+        <v>12.04693420011453</v>
       </c>
       <c r="I14">
-        <v>8.646054727868673</v>
+        <v>16.85854978710775</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>15.85793195664435</v>
+        <v>10.61371183476831</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>9.557772767322234</v>
+        <v>17.08838443758162</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,34 +1032,34 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>17.79862907286165</v>
+        <v>10.43130784811779</v>
       </c>
       <c r="C15">
-        <v>10.26961280402099</v>
+        <v>7.213605741115385</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>38.40666833852494</v>
+        <v>20.76232703529229</v>
       </c>
       <c r="F15">
-        <v>38.96319309123409</v>
+        <v>21.29868154950795</v>
       </c>
       <c r="G15">
-        <v>13.67100741095222</v>
+        <v>19.5444795750596</v>
       </c>
       <c r="H15">
-        <v>6.450311066539712</v>
+        <v>12.05341813828407</v>
       </c>
       <c r="I15">
-        <v>8.685036645664553</v>
+        <v>16.87171841430189</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>15.78441567076383</v>
+        <v>10.5780273892894</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>9.575325841392306</v>
+        <v>17.10013298354689</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,34 +1079,34 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>17.26950573981001</v>
+        <v>10.1411366645837</v>
       </c>
       <c r="C16">
-        <v>10.00776104794973</v>
+        <v>7.095498782546337</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>37.04010396336437</v>
+        <v>20.10325073864177</v>
       </c>
       <c r="F16">
-        <v>37.63463543028809</v>
+        <v>20.62722412089977</v>
       </c>
       <c r="G16">
-        <v>13.57644411142899</v>
+        <v>19.6383853399034</v>
       </c>
       <c r="H16">
-        <v>6.541654227569274</v>
+        <v>12.09122225167254</v>
       </c>
       <c r="I16">
-        <v>8.911344175989953</v>
+        <v>16.9483375899577</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>15.35681016437907</v>
+        <v>10.37075399810438</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>9.682630683696308</v>
+        <v>17.16882840798296</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,34 +1126,34 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>16.93716439578418</v>
+        <v>9.958532790923433</v>
       </c>
       <c r="C17">
-        <v>9.84406713975279</v>
+        <v>7.0218853000718</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>36.18711757256072</v>
+        <v>19.68808524919545</v>
       </c>
       <c r="F17">
-        <v>36.8022877826839</v>
+        <v>20.20408069597325</v>
       </c>
       <c r="G17">
-        <v>13.53409261026051</v>
+        <v>19.6986449638859</v>
       </c>
       <c r="H17">
-        <v>6.59943841009839</v>
+        <v>12.1149916559879</v>
       </c>
       <c r="I17">
-        <v>9.052677992524757</v>
+        <v>16.99637273028906</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>15.08886348468743</v>
+        <v>10.24115291728024</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>9.754150445675148</v>
+        <v>17.21219072474369</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,34 +1173,34 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>16.74315993490664</v>
+        <v>9.85182059969009</v>
       </c>
       <c r="C18">
-        <v>9.748797133966946</v>
+        <v>6.979128834326342</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>35.69099457252564</v>
+        <v>19.44529758798969</v>
       </c>
       <c r="F18">
-        <v>36.31710943239618</v>
+        <v>19.95656407809801</v>
       </c>
       <c r="G18">
-        <v>13.51529034768297</v>
+        <v>19.73427226157355</v>
       </c>
       <c r="H18">
-        <v>6.633290209517451</v>
+        <v>12.12887562160819</v>
       </c>
       <c r="I18">
-        <v>9.134852191524265</v>
+        <v>17.02438086084724</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>14.9326855943071</v>
+        <v>10.16572578037976</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>9.797263611770431</v>
+        <v>17.23757914744944</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,34 +1220,34 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>16.67698334409027</v>
+        <v>9.815401085529267</v>
       </c>
       <c r="C19">
-        <v>9.716349036586424</v>
+        <v>6.96458176375305</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>35.52205828935212</v>
+        <v>19.36240663706594</v>
       </c>
       <c r="F19">
-        <v>36.15172494150058</v>
+        <v>19.87204792380568</v>
       </c>
       <c r="G19">
-        <v>13.50985901872748</v>
+        <v>19.74650058409296</v>
       </c>
       <c r="H19">
-        <v>6.644855247160502</v>
+        <v>12.13361298844103</v>
       </c>
       <c r="I19">
-        <v>9.162823444789929</v>
+        <v>17.03392916789521</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>14.87945289009509</v>
+        <v>10.14003708095493</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>9.812190034440494</v>
+        <v>17.24625203180155</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,34 +1267,34 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>16.97283760624582</v>
+        <v>9.978145613486337</v>
       </c>
       <c r="C20">
-        <v>9.861608447822126</v>
+        <v>7.02976485770832</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>36.2784866854095</v>
+        <v>19.73269360156692</v>
       </c>
       <c r="F20">
-        <v>36.89155697731404</v>
+        <v>20.24955283636154</v>
       </c>
       <c r="G20">
-        <v>13.53802123066217</v>
+        <v>19.69212993158721</v>
       </c>
       <c r="H20">
-        <v>6.593222871992964</v>
+        <v>12.11243937841996</v>
       </c>
       <c r="I20">
-        <v>9.037540644046191</v>
+        <v>16.99122003121271</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>15.11760041517073</v>
+        <v>10.25504101039869</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>9.746329926013152</v>
+        <v>17.20752839425113</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,34 +1314,34 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>17.93285040380617</v>
+        <v>10.504800901668</v>
       </c>
       <c r="C21">
-        <v>10.33626927097277</v>
+        <v>7.243732673848198</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>38.75506808191103</v>
+        <v>20.92914372033528</v>
       </c>
       <c r="F21">
-        <v>39.30090300329766</v>
+        <v>21.46857628470577</v>
       </c>
       <c r="G21">
-        <v>13.70041576777189</v>
+        <v>19.52106029856116</v>
       </c>
       <c r="H21">
-        <v>6.427291532924094</v>
+        <v>12.04383642256364</v>
       </c>
       <c r="I21">
-        <v>8.627415025790379</v>
+        <v>16.85225549085647</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>15.89307324866252</v>
+        <v>10.63077383990961</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>9.549478738755901</v>
+        <v>17.08277493906566</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,34 +1361,34 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>18.53502892193726</v>
+        <v>10.8339213143666</v>
       </c>
       <c r="C22">
-        <v>10.63643864058424</v>
+        <v>7.379666528304265</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>40.32738798939172</v>
+        <v>21.67573630976689</v>
       </c>
       <c r="F22">
-        <v>40.81974568026789</v>
+        <v>22.22866616901552</v>
       </c>
       <c r="G22">
-        <v>13.86002680942059</v>
+        <v>19.41801857517667</v>
       </c>
       <c r="H22">
-        <v>6.324927417830847</v>
+        <v>12.00089025307341</v>
       </c>
       <c r="I22">
-        <v>8.368094459687418</v>
+        <v>16.76480552755886</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>16.381448981715</v>
+        <v>10.86816619793592</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>9.440953453904102</v>
+        <v>17.00524296824771</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,34 +1408,34 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>18.21593664153798</v>
+        <v>10.65964682820095</v>
       </c>
       <c r="C23">
-        <v>10.47715498068095</v>
+        <v>7.307482738245826</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>39.49230256716857</v>
+        <v>21.28049022332542</v>
       </c>
       <c r="F23">
-        <v>40.01414225038419</v>
+        <v>21.82633154458858</v>
       </c>
       <c r="G23">
-        <v>13.76977114466085</v>
+        <v>19.47220501867134</v>
       </c>
       <c r="H23">
-        <v>6.378972855131096</v>
+        <v>12.0236385960696</v>
       </c>
       <c r="I23">
-        <v>8.505651936292749</v>
+        <v>16.81117114908265</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>16.12248259941492</v>
+        <v>10.74222638918788</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>9.496904468406902</v>
+        <v>17.04625628587731</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,34 +1455,34 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>16.95671889720506</v>
+        <v>9.969284046364155</v>
       </c>
       <c r="C24">
-        <v>9.85368163488436</v>
+        <v>7.026203862639331</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>36.23719658616809</v>
+        <v>19.71253894986639</v>
       </c>
       <c r="F24">
-        <v>36.8512191057543</v>
+        <v>20.22900810905287</v>
       </c>
       <c r="G24">
-        <v>13.53622787297148</v>
+        <v>19.69507231651459</v>
       </c>
       <c r="H24">
-        <v>6.596030957903462</v>
+        <v>12.11359258207631</v>
       </c>
       <c r="I24">
-        <v>9.044381383829286</v>
+        <v>16.99354834499328</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>15.10461508774011</v>
+        <v>10.24876505866394</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>9.749859394476246</v>
+        <v>17.20963480470436</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,34 +1502,34 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>15.48946625098586</v>
+        <v>9.181356822046521</v>
       </c>
       <c r="C25">
-        <v>9.13858612175143</v>
+        <v>6.707046629126884</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>32.51413741216054</v>
+        <v>17.86835774785718</v>
       </c>
       <c r="F25">
-        <v>33.19272459126715</v>
+        <v>18.34778573295695</v>
       </c>
       <c r="G25">
-        <v>13.49366275405828</v>
+        <v>19.97237841847859</v>
       </c>
       <c r="H25">
-        <v>6.853475329848758</v>
+        <v>12.21874589428214</v>
       </c>
       <c r="I25">
-        <v>9.659010748003292</v>
+        <v>17.20479036690595</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>13.92800532450304</v>
+        <v>9.68292532718576</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>10.09713441112161</v>
+        <v>17.40296829654003</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_36/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_36/res_line/loading_percent.xlsx
@@ -421,34 +421,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>8.593669337425428</v>
+        <v>14.31500916577979</v>
       </c>
       <c r="C2">
-        <v>6.459742127343147</v>
+        <v>8.576467395761039</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>16.53736111016295</v>
+        <v>29.57701765066987</v>
       </c>
       <c r="F2">
-        <v>16.86991607391245</v>
+        <v>30.27884324296195</v>
       </c>
       <c r="G2">
-        <v>20.20755339058882</v>
+        <v>13.61659900730759</v>
       </c>
       <c r="H2">
-        <v>12.30318198815509</v>
+        <v>7.060588168266592</v>
       </c>
       <c r="I2">
-        <v>17.37289335160082</v>
+        <v>10.13744158961928</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>9.239354112517319</v>
+        <v>12.99503436716062</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>17.55997275444416</v>
+        <v>10.40528454659184</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,34 +468,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>8.170753776752328</v>
+        <v>13.4605063789424</v>
       </c>
       <c r="C3">
-        <v>6.285196716249302</v>
+        <v>8.17418764914704</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>15.59869541374222</v>
+        <v>27.45823426395822</v>
       </c>
       <c r="F3">
-        <v>15.89584955866815</v>
+        <v>28.1630198432675</v>
       </c>
       <c r="G3">
-        <v>20.38590023328348</v>
+        <v>13.78195119525343</v>
       </c>
       <c r="H3">
-        <v>12.36479282231346</v>
+        <v>7.210924183332984</v>
       </c>
       <c r="I3">
-        <v>17.49469821902562</v>
+        <v>10.47689632750404</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>8.923135850748967</v>
+        <v>12.32218406031566</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>17.67549190488816</v>
+        <v>10.64195755337682</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,34 +515,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>7.899586619791833</v>
+        <v>12.90714087711272</v>
       </c>
       <c r="C4">
-        <v>6.174879816275154</v>
+        <v>7.917088417151392</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>14.99705907009783</v>
+        <v>26.09217075148916</v>
       </c>
       <c r="F4">
-        <v>15.26997757108489</v>
+        <v>26.79314218379246</v>
       </c>
       <c r="G4">
-        <v>20.50464095743429</v>
+        <v>13.91913696119912</v>
       </c>
       <c r="H4">
-        <v>12.40479087960728</v>
+        <v>7.307887746280318</v>
       </c>
       <c r="I4">
-        <v>17.57338720478943</v>
+        <v>10.69263038751396</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>8.721760339334384</v>
+        <v>11.88955602302917</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>17.75090962806147</v>
+        <v>10.79962359319475</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,34 +562,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>7.78631206904909</v>
+        <v>12.67447194798418</v>
       </c>
       <c r="C5">
-        <v>6.129180095764659</v>
+        <v>7.809858998904411</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>14.74579530734558</v>
+        <v>25.51885606460762</v>
       </c>
       <c r="F5">
-        <v>15.008197319934</v>
+        <v>26.2169480385347</v>
       </c>
       <c r="G5">
-        <v>20.55533321542663</v>
+        <v>13.98330404122592</v>
       </c>
       <c r="H5">
-        <v>12.42163634939939</v>
+        <v>7.348538118035634</v>
       </c>
       <c r="I5">
-        <v>17.60643617724406</v>
+        <v>10.78235947592662</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>8.637965723695967</v>
+        <v>11.70845592077648</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>17.78277036789328</v>
+        <v>10.86679513244026</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,34 +609,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>7.767339382544004</v>
+        <v>12.63540631451026</v>
       </c>
       <c r="C6">
-        <v>6.12154813276558</v>
+        <v>7.791907734828967</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>14.70371407509736</v>
+        <v>25.4226457348997</v>
       </c>
       <c r="F6">
-        <v>14.96433081551589</v>
+        <v>26.12018204701072</v>
       </c>
       <c r="G6">
-        <v>20.56388929532758</v>
+        <v>13.99443783696859</v>
       </c>
       <c r="H6">
-        <v>12.4244665176895</v>
+        <v>7.355355842891595</v>
       </c>
       <c r="I6">
-        <v>17.61198333266621</v>
+        <v>10.79736807924838</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>8.623949628769564</v>
+        <v>11.67809787513608</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>17.78812887679989</v>
+        <v>10.87812036862923</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,34 +656,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>7.898070010391931</v>
+        <v>12.90403196775175</v>
       </c>
       <c r="C7">
-        <v>6.174266445467326</v>
+        <v>7.915652124814699</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>14.99369471305475</v>
+        <v>26.08450650603624</v>
       </c>
       <c r="F7">
-        <v>15.26647399323133</v>
+        <v>26.78544435617556</v>
       </c>
       <c r="G7">
-        <v>20.50531530365419</v>
+        <v>13.91996979961545</v>
       </c>
       <c r="H7">
-        <v>12.40501585224835</v>
+        <v>7.308431409543567</v>
       </c>
       <c r="I7">
-        <v>17.57382893398889</v>
+        <v>10.69383317738473</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>8.720637155516709</v>
+        <v>11.88713292991469</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>17.75133474995154</v>
+        <v>10.80051789170275</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,34 +703,34 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>8.450299174778579</v>
+        <v>14.02635582707045</v>
       </c>
       <c r="C8">
-        <v>6.400238346091272</v>
+        <v>8.439900260104597</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>16.21910351277491</v>
+        <v>28.85981816335911</v>
       </c>
       <c r="F8">
-        <v>16.5399640634477</v>
+        <v>29.56389055882491</v>
       </c>
       <c r="G8">
-        <v>20.26711987467334</v>
+        <v>13.66578253898646</v>
       </c>
       <c r="H8">
-        <v>12.32397562863803</v>
+        <v>7.111435568588474</v>
       </c>
       <c r="I8">
-        <v>17.41408324891855</v>
+        <v>10.25295351255165</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>9.131866342995053</v>
+        <v>12.767135633386</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>17.59887139140611</v>
+        <v>10.48420971180267</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,34 +750,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>9.441382406846031</v>
+        <v>15.9983268619138</v>
       </c>
       <c r="C9">
-        <v>6.816557071391833</v>
+        <v>9.385085930982175</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>18.51012740470379</v>
+        <v>33.79781990551683</v>
       </c>
       <c r="F9">
-        <v>19.00274580682531</v>
+        <v>34.45877994146107</v>
       </c>
       <c r="G9">
-        <v>19.87410293913234</v>
+        <v>13.48220623917586</v>
       </c>
       <c r="H9">
-        <v>12.18223729891341</v>
+        <v>6.7638792710876</v>
       </c>
       <c r="I9">
-        <v>17.13168643409617</v>
+        <v>9.447794033030679</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>9.877857249889027</v>
+        <v>14.33479533074629</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>17.33556367659569</v>
+        <v>9.971292269791885</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,34 +797,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>10.16174458786111</v>
+        <v>17.30704232131478</v>
       </c>
       <c r="C10">
-        <v>7.103841505207825</v>
+        <v>10.02628778298227</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>20.15008337421779</v>
+        <v>37.1366983430279</v>
       </c>
       <c r="F10">
-        <v>20.67494806633232</v>
+        <v>37.72874519847221</v>
       </c>
       <c r="G10">
-        <v>19.63164089995034</v>
+        <v>13.5820443718756</v>
       </c>
       <c r="H10">
-        <v>12.08853877584501</v>
+        <v>6.535145976876537</v>
       </c>
       <c r="I10">
-        <v>16.9429078509335</v>
+        <v>8.89533914606756</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>10.3854215066119</v>
+        <v>15.387104928099</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>17.16394116581485</v>
+        <v>9.674745838184991</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,34 +844,34 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>10.47155207736119</v>
+        <v>17.87211689525813</v>
       </c>
       <c r="C11">
-        <v>7.230092529560977</v>
+        <v>10.30609656431076</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>20.85367963826348</v>
+        <v>38.59733134209196</v>
       </c>
       <c r="F11">
-        <v>21.3917225636224</v>
+        <v>39.1480572223286</v>
       </c>
       <c r="G11">
-        <v>19.53163697325141</v>
+        <v>13.686833704789</v>
       </c>
       <c r="H11">
-        <v>12.04817162327284</v>
+        <v>6.437699271365941</v>
       </c>
       <c r="I11">
-        <v>16.86106356455551</v>
+        <v>8.653497661354638</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>10.60689873039724</v>
+        <v>15.84389784175383</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>17.0906258149521</v>
+        <v>9.561102600608315</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,34 +891,34 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>10.58628301183519</v>
+        <v>18.08176477251208</v>
       </c>
       <c r="C12">
-        <v>7.277232893459064</v>
+        <v>10.41033022693399</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>21.11404780258093</v>
+        <v>39.14246656563391</v>
       </c>
       <c r="F12">
-        <v>21.65686569030329</v>
+        <v>39.67592721363786</v>
       </c>
       <c r="G12">
-        <v>19.49526918990421</v>
+        <v>13.73565312338058</v>
       </c>
       <c r="H12">
-        <v>12.03320970117831</v>
+        <v>6.401833182645192</v>
       </c>
       <c r="I12">
-        <v>16.83064941218857</v>
+        <v>8.563399580912678</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>10.68936842927858</v>
+        <v>16.01371143299723</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>17.06354921121915</v>
+        <v>9.52148841024114</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,34 +938,34 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>10.56168886112699</v>
+        <v>18.03680570612874</v>
       </c>
       <c r="C13">
-        <v>7.267110538891091</v>
+        <v>10.38795846722476</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>21.05824223985627</v>
+        <v>39.02540984546359</v>
       </c>
       <c r="F13">
-        <v>21.60004134736742</v>
+        <v>39.56266403258223</v>
       </c>
       <c r="G13">
-        <v>19.50303451866958</v>
+        <v>13.72472395105273</v>
       </c>
       <c r="H13">
-        <v>12.03641760211409</v>
+        <v>6.409510059787422</v>
       </c>
       <c r="I13">
-        <v>16.83717393505312</v>
+        <v>8.582735624648553</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>10.67166997371169</v>
+        <v>15.97727985320032</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>17.06935007906567</v>
+        <v>9.529861764460762</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,34 +985,34 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>10.48104296100208</v>
+        <v>17.88945146846447</v>
       </c>
       <c r="C14">
-        <v>7.233984349135699</v>
+        <v>10.31470653748846</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>20.8752217190855</v>
+        <v>38.64233734551875</v>
       </c>
       <c r="F14">
-        <v>21.4136618050453</v>
+        <v>39.19167637503946</v>
       </c>
       <c r="G14">
-        <v>19.52861475755424</v>
+        <v>13.69066384103051</v>
       </c>
       <c r="H14">
-        <v>12.04693420011453</v>
+        <v>6.434727270613751</v>
       </c>
       <c r="I14">
-        <v>16.85854978710775</v>
+        <v>8.646054727868602</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>10.61371183476831</v>
+        <v>15.85793195664435</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>17.08838443758162</v>
+        <v>9.557772767322191</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,34 +1032,34 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>10.43130784811779</v>
+        <v>17.79862907286166</v>
       </c>
       <c r="C15">
-        <v>7.213605741115385</v>
+        <v>10.26961280402103</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>20.76232703529229</v>
+        <v>38.40666833852494</v>
       </c>
       <c r="F15">
-        <v>21.29868154950795</v>
+        <v>38.96319309123407</v>
       </c>
       <c r="G15">
-        <v>19.5444795750596</v>
+        <v>13.67100741095208</v>
       </c>
       <c r="H15">
-        <v>12.05341813828407</v>
+        <v>6.450311066539715</v>
       </c>
       <c r="I15">
-        <v>16.87171841430189</v>
+        <v>8.685036645664463</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>10.5780273892894</v>
+        <v>15.78441567076384</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>17.10013298354689</v>
+        <v>9.575325841392212</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,34 +1079,34 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>10.1411366645837</v>
+        <v>17.26950573981002</v>
       </c>
       <c r="C16">
-        <v>7.095498782546337</v>
+        <v>10.0077610479498</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>20.10325073864177</v>
+        <v>37.0401039633643</v>
       </c>
       <c r="F16">
-        <v>20.62722412089977</v>
+        <v>37.63463543028808</v>
       </c>
       <c r="G16">
-        <v>19.6383853399034</v>
+        <v>13.57644411142908</v>
       </c>
       <c r="H16">
-        <v>12.09122225167254</v>
+        <v>6.541654227569224</v>
       </c>
       <c r="I16">
-        <v>16.9483375899577</v>
+        <v>8.911344175989933</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>10.37075399810438</v>
+        <v>15.35681016437908</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>17.16882840798296</v>
+        <v>9.68263068369628</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,34 +1126,34 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>9.958532790923433</v>
+        <v>16.93716439578418</v>
       </c>
       <c r="C17">
-        <v>7.0218853000718</v>
+        <v>9.844067139752848</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>19.68808524919545</v>
+        <v>36.18711757256074</v>
       </c>
       <c r="F17">
-        <v>20.20408069597325</v>
+        <v>36.80228778268388</v>
       </c>
       <c r="G17">
-        <v>19.6986449638859</v>
+        <v>13.53409261026046</v>
       </c>
       <c r="H17">
-        <v>12.1149916559879</v>
+        <v>6.599438410098386</v>
       </c>
       <c r="I17">
-        <v>16.99637273028906</v>
+        <v>9.052677992524757</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>10.24115291728024</v>
+        <v>15.08886348468745</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>17.21219072474369</v>
+        <v>9.754150445675094</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,34 +1173,34 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>9.85182059969009</v>
+        <v>16.74315993490668</v>
       </c>
       <c r="C18">
-        <v>6.979128834326342</v>
+        <v>9.748797133966855</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>19.44529758798969</v>
+        <v>35.69099457252558</v>
       </c>
       <c r="F18">
-        <v>19.95656407809801</v>
+        <v>36.31710943239619</v>
       </c>
       <c r="G18">
-        <v>19.73427226157355</v>
+        <v>13.51529034768286</v>
       </c>
       <c r="H18">
-        <v>12.12887562160819</v>
+        <v>6.6332902095174</v>
       </c>
       <c r="I18">
-        <v>17.02438086084724</v>
+        <v>9.134852191524088</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>10.16572578037976</v>
+        <v>14.93268559430708</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>17.23757914744944</v>
+        <v>9.797263611770314</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,34 +1220,34 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>9.815401085529267</v>
+        <v>16.67698334409017</v>
       </c>
       <c r="C19">
-        <v>6.96458176375305</v>
+        <v>9.716349036586513</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>19.36240663706594</v>
+        <v>35.5220582893521</v>
       </c>
       <c r="F19">
-        <v>19.87204792380568</v>
+        <v>36.15172494150059</v>
       </c>
       <c r="G19">
-        <v>19.74650058409296</v>
+        <v>13.50985901872763</v>
       </c>
       <c r="H19">
-        <v>12.13361298844103</v>
+        <v>6.644855247160642</v>
       </c>
       <c r="I19">
-        <v>17.03392916789521</v>
+        <v>9.162823444790053</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>10.14003708095493</v>
+        <v>14.87945289009506</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>17.24625203180155</v>
+        <v>9.812190034440599</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,34 +1267,34 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>9.978145613486337</v>
+        <v>16.97283760624586</v>
       </c>
       <c r="C20">
-        <v>7.02976485770832</v>
+        <v>9.861608447822142</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>19.73269360156692</v>
+        <v>36.27848668540948</v>
       </c>
       <c r="F20">
-        <v>20.24955283636154</v>
+        <v>36.89155697731402</v>
       </c>
       <c r="G20">
-        <v>19.69212993158721</v>
+        <v>13.53802123066218</v>
       </c>
       <c r="H20">
-        <v>12.11243937841996</v>
+        <v>6.593222871992971</v>
       </c>
       <c r="I20">
-        <v>16.99122003121271</v>
+        <v>9.037540644046143</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>10.25504101039869</v>
+        <v>15.11760041517076</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>17.20752839425113</v>
+        <v>9.746329926013123</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,34 +1314,34 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>10.504800901668</v>
+        <v>17.93285040380618</v>
       </c>
       <c r="C21">
-        <v>7.243732673848198</v>
+        <v>10.33626927097279</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>20.92914372033528</v>
+        <v>38.75506808191111</v>
       </c>
       <c r="F21">
-        <v>21.46857628470577</v>
+        <v>39.30090300329761</v>
       </c>
       <c r="G21">
-        <v>19.52106029856116</v>
+        <v>13.70041576777207</v>
       </c>
       <c r="H21">
-        <v>12.04383642256364</v>
+        <v>6.427291532924048</v>
       </c>
       <c r="I21">
-        <v>16.85225549085647</v>
+        <v>8.627415025790405</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>10.63077383990961</v>
+        <v>15.8930732486625</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>17.08277493906566</v>
+        <v>9.549478738755971</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,34 +1361,34 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>10.8339213143666</v>
+        <v>18.53502892193722</v>
       </c>
       <c r="C22">
-        <v>7.379666528304265</v>
+        <v>10.63643864058434</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>21.67573630976689</v>
+        <v>40.3273879893917</v>
       </c>
       <c r="F22">
-        <v>22.22866616901552</v>
+        <v>40.81974568026784</v>
       </c>
       <c r="G22">
-        <v>19.41801857517667</v>
+        <v>13.86002680942059</v>
       </c>
       <c r="H22">
-        <v>12.00089025307341</v>
+        <v>6.324927417830847</v>
       </c>
       <c r="I22">
-        <v>16.76480552755886</v>
+        <v>8.368094459687427</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>10.86816619793592</v>
+        <v>16.381448981715</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>17.00524296824771</v>
+        <v>9.440953453904074</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,34 +1408,34 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>10.65964682820095</v>
+        <v>18.21593664153797</v>
       </c>
       <c r="C23">
-        <v>7.307482738245826</v>
+        <v>10.47715498068099</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>21.28049022332542</v>
+        <v>39.49230256716849</v>
       </c>
       <c r="F23">
-        <v>21.82633154458858</v>
+        <v>40.01414225038427</v>
       </c>
       <c r="G23">
-        <v>19.47220501867134</v>
+        <v>13.76977114466101</v>
       </c>
       <c r="H23">
-        <v>12.0236385960696</v>
+        <v>6.378972855131054</v>
       </c>
       <c r="I23">
-        <v>16.81117114908265</v>
+        <v>8.505651936292772</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>10.74222638918788</v>
+        <v>16.12248259941492</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>17.04625628587731</v>
+        <v>9.496904468406939</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,34 +1455,34 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>9.969284046364155</v>
+        <v>16.9567188972051</v>
       </c>
       <c r="C24">
-        <v>7.026203862639331</v>
+        <v>9.853681634884373</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>19.71253894986639</v>
+        <v>36.23719658616813</v>
       </c>
       <c r="F24">
-        <v>20.22900810905287</v>
+        <v>36.8512191057544</v>
       </c>
       <c r="G24">
-        <v>19.69507231651459</v>
+        <v>13.53622787297144</v>
       </c>
       <c r="H24">
-        <v>12.11359258207631</v>
+        <v>6.596030957903405</v>
       </c>
       <c r="I24">
-        <v>16.99354834499328</v>
+        <v>9.044381383829252</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>10.24876505866394</v>
+        <v>15.10461508774013</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>17.20963480470436</v>
+        <v>9.749859394476216</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,34 +1502,34 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>9.181356822046521</v>
+        <v>15.48946625098584</v>
       </c>
       <c r="C25">
-        <v>6.707046629126884</v>
+        <v>9.138586121751445</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>17.86835774785718</v>
+        <v>32.51413741216047</v>
       </c>
       <c r="F25">
-        <v>18.34778573295695</v>
+        <v>33.19272459126714</v>
       </c>
       <c r="G25">
-        <v>19.97237841847859</v>
+        <v>13.49366275405831</v>
       </c>
       <c r="H25">
-        <v>12.21874589428214</v>
+        <v>6.853475329848758</v>
       </c>
       <c r="I25">
-        <v>17.20479036690595</v>
+        <v>9.659010748003318</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>9.68292532718576</v>
+        <v>13.92800532450302</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>17.40296829654003</v>
+        <v>10.09713441112163</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_36/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_36/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1133 +415,1283 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>14.31500916577979</v>
+        <v>12.38916239209058</v>
       </c>
       <c r="C2">
-        <v>8.576467395761039</v>
+        <v>8.334458147103192</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>29.57701765066987</v>
+        <v>28.63793250568942</v>
       </c>
       <c r="F2">
-        <v>30.27884324296195</v>
+        <v>30.27884324296193</v>
       </c>
       <c r="G2">
-        <v>13.61659900730759</v>
+        <v>17.72322553753149</v>
       </c>
       <c r="H2">
-        <v>7.060588168266592</v>
+        <v>2.774929315291205</v>
       </c>
       <c r="I2">
-        <v>10.13744158961928</v>
+        <v>2.777206753567486</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>8.060550135636831</v>
       </c>
       <c r="K2">
-        <v>12.99503436716062</v>
+        <v>12.19504584793896</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>11.46547281710603</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>10.40528454659184</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>12.00316953668878</v>
+      </c>
+      <c r="Q2">
+        <v>12.51555107973424</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>13.4605063789424</v>
+        <v>11.61775538654168</v>
       </c>
       <c r="C3">
-        <v>8.17418764914704</v>
+        <v>7.981016728914396</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>27.45823426395822</v>
+        <v>26.81716751708569</v>
       </c>
       <c r="F3">
-        <v>28.1630198432675</v>
+        <v>28.16301984326747</v>
       </c>
       <c r="G3">
-        <v>13.78195119525343</v>
+        <v>17.54905817372986</v>
       </c>
       <c r="H3">
-        <v>7.210924183332984</v>
+        <v>2.56891819759341</v>
       </c>
       <c r="I3">
-        <v>10.47689632750404</v>
+        <v>2.669846041603769</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>8.106484757123184</v>
       </c>
       <c r="K3">
-        <v>12.32218406031566</v>
+        <v>12.32013450571239</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>10.86371152315058</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>10.64195755337682</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>12.09358956465334</v>
+      </c>
+      <c r="Q3">
+        <v>12.54215755275413</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>12.90714087711272</v>
+        <v>11.11420432875435</v>
       </c>
       <c r="C4">
-        <v>7.917088417151392</v>
+        <v>7.758375141913102</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>26.09217075148916</v>
+        <v>25.63536116665176</v>
       </c>
       <c r="F4">
-        <v>26.79314218379246</v>
+        <v>26.79314218379242</v>
       </c>
       <c r="G4">
-        <v>13.91913696119912</v>
+        <v>17.45040586419647</v>
       </c>
       <c r="H4">
-        <v>7.307887746280318</v>
+        <v>2.437781238376097</v>
       </c>
       <c r="I4">
-        <v>10.69263038751396</v>
+        <v>2.602145894276497</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>8.136753093914052</v>
       </c>
       <c r="K4">
-        <v>11.88955602302917</v>
+        <v>12.39988100380447</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>10.47583871387821</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>10.79962359319475</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>12.15112848862222</v>
+      </c>
+      <c r="Q4">
+        <v>12.56305337005997</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>12.67447194798418</v>
+        <v>10.89659808469205</v>
       </c>
       <c r="C5">
-        <v>7.809858998904411</v>
+        <v>7.673305523423446</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>25.51885606460762</v>
+        <v>25.13755738664695</v>
       </c>
       <c r="F5">
-        <v>26.2169480385347</v>
+        <v>26.21694803853475</v>
       </c>
       <c r="G5">
-        <v>13.98330404122592</v>
+        <v>17.40268771823023</v>
       </c>
       <c r="H5">
-        <v>7.348538118035634</v>
+        <v>2.383041658057762</v>
       </c>
       <c r="I5">
-        <v>10.78235947592662</v>
+        <v>2.574755703157328</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>8.148212396363077</v>
       </c>
       <c r="K5">
-        <v>11.70845592077648</v>
+        <v>12.429793330171</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>10.31320825207999</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>10.86679513244026</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>12.17547926878652</v>
+      </c>
+      <c r="Q5">
+        <v>12.56904141375272</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>12.63540631451026</v>
+        <v>10.85401798998516</v>
       </c>
       <c r="C6">
-        <v>7.791907734828967</v>
+        <v>7.667682569108282</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>25.4226457348997</v>
+        <v>25.05371900994713</v>
       </c>
       <c r="F6">
-        <v>26.12018204701072</v>
+        <v>26.1201820470107</v>
       </c>
       <c r="G6">
-        <v>13.99443783696859</v>
+        <v>17.38321004662442</v>
       </c>
       <c r="H6">
-        <v>7.355355842891595</v>
+        <v>2.373737627544964</v>
       </c>
       <c r="I6">
-        <v>10.79736807924838</v>
+        <v>2.571191032933892</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>8.148456694199144</v>
       </c>
       <c r="K6">
-        <v>11.67809787513608</v>
+        <v>12.43076229312467</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>10.28588323658271</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>10.87812036862923</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>12.18004732159851</v>
+      </c>
+      <c r="Q6">
+        <v>12.5656622469105</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>12.90403196775175</v>
+        <v>11.0952947861413</v>
       </c>
       <c r="C7">
-        <v>7.915652124814699</v>
+        <v>7.7803641141619</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>26.08450650603624</v>
+        <v>25.6281523766291</v>
       </c>
       <c r="F7">
         <v>26.78544435617556</v>
       </c>
       <c r="G7">
-        <v>13.91996979961545</v>
+        <v>17.41797742774643</v>
       </c>
       <c r="H7">
-        <v>7.308431409543567</v>
+        <v>2.436665373142953</v>
       </c>
       <c r="I7">
-        <v>10.69383317738473</v>
+        <v>2.604184288379675</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>8.132300434223934</v>
       </c>
       <c r="K7">
-        <v>11.88713292991469</v>
+        <v>12.38924152921804</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>10.47353230791981</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>10.80051789170275</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>12.15286496638364</v>
+      </c>
+      <c r="Q7">
+        <v>12.55102008467109</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>14.02635582707045</v>
+        <v>12.10976198368719</v>
       </c>
       <c r="C8">
-        <v>8.439900260104597</v>
+        <v>8.243065449687307</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>28.85981816335911</v>
+        <v>28.02271443181506</v>
       </c>
       <c r="F8">
-        <v>29.56389055882491</v>
+        <v>29.56389055882486</v>
       </c>
       <c r="G8">
-        <v>13.66578253898646</v>
+        <v>17.61998510676827</v>
       </c>
       <c r="H8">
-        <v>7.111435568588474</v>
+        <v>2.704376605396748</v>
       </c>
       <c r="I8">
-        <v>10.25295351255165</v>
+        <v>2.743267039369869</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>8.069888074150212</v>
       </c>
       <c r="K8">
-        <v>12.767135633386</v>
+        <v>12.22295625209112</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>11.261701851668</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>10.48420971180267</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>12.03605596117833</v>
+      </c>
+      <c r="Q8">
+        <v>12.50780470966036</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>15.9983268619138</v>
+        <v>13.88725712389069</v>
       </c>
       <c r="C9">
-        <v>9.385085930982175</v>
+        <v>9.064323003136732</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>33.79781990551683</v>
+        <v>32.21289149598211</v>
       </c>
       <c r="F9">
-        <v>34.45877994146107</v>
+        <v>34.4587799414611</v>
       </c>
       <c r="G9">
-        <v>13.48220623917586</v>
+        <v>18.13984375442251</v>
       </c>
       <c r="H9">
-        <v>6.7638792710876</v>
+        <v>3.193833091894498</v>
       </c>
       <c r="I9">
-        <v>9.447794033030679</v>
+        <v>2.999074926439864</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>7.9726973129061</v>
       </c>
       <c r="K9">
-        <v>14.33479533074629</v>
+        <v>11.94067887905517</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>12.65831576289295</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>9.971292269791885</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>11.82026355698944</v>
+      </c>
+      <c r="Q9">
+        <v>12.48278259697201</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>17.30704232131478</v>
+        <v>15.01878917863682</v>
       </c>
       <c r="C10">
-        <v>10.02628778298227</v>
+        <v>9.607295945812668</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>37.1366983430279</v>
+        <v>34.10662591537352</v>
       </c>
       <c r="F10">
-        <v>37.72874519847221</v>
+        <v>37.72874519847217</v>
       </c>
       <c r="G10">
-        <v>13.5820443718756</v>
+        <v>18.39088937650392</v>
       </c>
       <c r="H10">
-        <v>6.535145976876537</v>
+        <v>3.498251878750047</v>
       </c>
       <c r="I10">
-        <v>8.89533914606756</v>
+        <v>3.175134172537529</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>7.88830967211742</v>
       </c>
       <c r="K10">
-        <v>15.387104928099</v>
+        <v>11.71139461301602</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>13.56142271039084</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>9.674745838184991</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>11.68473074807004</v>
+      </c>
+      <c r="Q10">
+        <v>12.42375793899689</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>17.87211689525813</v>
+        <v>15.28516214816703</v>
       </c>
       <c r="C11">
-        <v>10.30609656431076</v>
+        <v>9.551833992569076</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>38.59733134209196</v>
+        <v>27.43890778830642</v>
       </c>
       <c r="F11">
-        <v>39.1480572223286</v>
+        <v>39.14805722232856</v>
       </c>
       <c r="G11">
-        <v>13.686833704789</v>
+        <v>17.09059577154348</v>
       </c>
       <c r="H11">
-        <v>6.437699271365941</v>
+        <v>3.926794571915015</v>
       </c>
       <c r="I11">
-        <v>8.653497661354638</v>
+        <v>3.215521954412016</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>7.655501149917039</v>
       </c>
       <c r="K11">
-        <v>15.84389784175383</v>
+        <v>11.32142202740993</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>13.70881571949683</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>9.561102600608315</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>11.74113665952758</v>
+      </c>
+      <c r="Q11">
+        <v>11.8608897212337</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>18.08176477251208</v>
+        <v>15.30116994291172</v>
       </c>
       <c r="C12">
-        <v>10.41033022693399</v>
+        <v>9.371172450580275</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>39.14246656563391</v>
+        <v>21.41010406817178</v>
       </c>
       <c r="F12">
         <v>39.67592721363786</v>
       </c>
       <c r="G12">
-        <v>13.73565312338058</v>
+        <v>15.97973312135171</v>
       </c>
       <c r="H12">
-        <v>6.401833182645192</v>
+        <v>4.849635000818074</v>
       </c>
       <c r="I12">
-        <v>8.563399580912678</v>
+        <v>3.213797942855537</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>7.48369771186283</v>
       </c>
       <c r="K12">
-        <v>16.01371143299723</v>
+        <v>11.06491611823202</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>13.65227002970417</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>9.52148841024114</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>11.82323504208732</v>
+      </c>
+      <c r="Q12">
+        <v>11.41772745309523</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>18.03680570612874</v>
+        <v>15.1080352266388</v>
       </c>
       <c r="C13">
-        <v>10.38795846722476</v>
+        <v>9.110546179524041</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>39.02540984546359</v>
+        <v>15.34973611109466</v>
       </c>
       <c r="F13">
-        <v>39.56266403258223</v>
+        <v>39.56266403260141</v>
       </c>
       <c r="G13">
-        <v>13.72472395105273</v>
+        <v>14.89692662287167</v>
       </c>
       <c r="H13">
-        <v>6.409510059787422</v>
+        <v>5.972536716241271</v>
       </c>
       <c r="I13">
-        <v>8.582735624648553</v>
+        <v>3.183662625180938</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>7.341942255796925</v>
       </c>
       <c r="K13">
-        <v>15.97727985320032</v>
+        <v>10.87985150498742</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>13.43456901940656</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>9.529861764460762</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>11.92827559226642</v>
+      </c>
+      <c r="Q13">
+        <v>11.02326838290737</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>17.88945146846447</v>
+        <v>14.87232658884516</v>
       </c>
       <c r="C14">
-        <v>10.31470653748846</v>
+        <v>8.897310419475374</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>38.64233734551875</v>
+        <v>11.08681452224716</v>
       </c>
       <c r="F14">
-        <v>39.19167637503946</v>
+        <v>39.19167637503955</v>
       </c>
       <c r="G14">
-        <v>13.69066384103051</v>
+        <v>14.15106479263188</v>
       </c>
       <c r="H14">
-        <v>6.434727270613751</v>
+        <v>6.82995088957856</v>
       </c>
       <c r="I14">
-        <v>8.646054727868602</v>
+        <v>3.151282124963364</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>7.256430062795988</v>
       </c>
       <c r="K14">
-        <v>15.85793195664435</v>
+        <v>10.78313654953908</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>13.20748909363725</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>9.557772767322191</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>12.01228995196344</v>
+      </c>
+      <c r="Q14">
+        <v>10.77052439631061</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>17.79862907286166</v>
+        <v>14.76398155606147</v>
       </c>
       <c r="C15">
-        <v>10.26961280402103</v>
+        <v>8.833949420324037</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>38.40666833852494</v>
+        <v>10.04436113202453</v>
       </c>
       <c r="F15">
-        <v>38.96319309123407</v>
+        <v>38.96319309154519</v>
       </c>
       <c r="G15">
-        <v>13.67100741095208</v>
+        <v>13.96822780358792</v>
       </c>
       <c r="H15">
-        <v>6.450311066539715</v>
+        <v>7.027778831560624</v>
       </c>
       <c r="I15">
-        <v>8.685036645664463</v>
+        <v>3.138074687753226</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>7.24091837165248</v>
       </c>
       <c r="K15">
-        <v>15.78441567076384</v>
+        <v>10.77140129133572</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>13.11640326863078</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>9.575325841392212</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <v>12.03729326430814</v>
+      </c>
+      <c r="Q15">
+        <v>10.71641694715625</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>17.26950573981002</v>
+        <v>14.31969525992232</v>
       </c>
       <c r="C16">
-        <v>10.0077610479498</v>
+        <v>8.661356963019164</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>37.0401039633643</v>
+        <v>9.983586972048181</v>
       </c>
       <c r="F16">
-        <v>37.63463543028808</v>
+        <v>37.6346354302881</v>
       </c>
       <c r="G16">
-        <v>13.57644411142908</v>
+        <v>14.05460446203749</v>
       </c>
       <c r="H16">
-        <v>6.541654227569224</v>
+        <v>6.763028839294247</v>
       </c>
       <c r="I16">
-        <v>8.911344175989933</v>
+        <v>3.071752238693317</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>7.304142167064789</v>
       </c>
       <c r="K16">
-        <v>15.35681016437908</v>
+        <v>10.90316192088201</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>12.77643355499866</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>9.68263068369628</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <v>12.06274838752192</v>
+      </c>
+      <c r="Q16">
+        <v>10.81857713706265</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>16.93716439578418</v>
+        <v>14.1019785155183</v>
       </c>
       <c r="C17">
-        <v>9.844067139752848</v>
+        <v>8.644060272556489</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>36.18711757256074</v>
+        <v>12.27496411169966</v>
       </c>
       <c r="F17">
         <v>36.80228778268388</v>
       </c>
       <c r="G17">
-        <v>13.53409261026046</v>
+        <v>14.51412533664209</v>
       </c>
       <c r="H17">
-        <v>6.599438410098386</v>
+        <v>6.055308247101569</v>
       </c>
       <c r="I17">
-        <v>9.052677992524757</v>
+        <v>3.037771910555094</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>7.39752265598248</v>
       </c>
       <c r="K17">
-        <v>15.08886348468745</v>
+        <v>11.05374744062484</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>12.63607445538239</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>9.754150445675094</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <v>12.03969640414569</v>
+      </c>
+      <c r="Q17">
+        <v>11.02871511649433</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>16.74315993490668</v>
+        <v>14.07403932878521</v>
       </c>
       <c r="C18">
-        <v>9.748797133966855</v>
+        <v>8.749785399100531</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>35.69099457252558</v>
+        <v>17.03165284879922</v>
       </c>
       <c r="F18">
-        <v>36.31710943239619</v>
+        <v>36.31710943239624</v>
       </c>
       <c r="G18">
-        <v>13.51529034768286</v>
+        <v>15.37559341297643</v>
       </c>
       <c r="H18">
-        <v>6.6332902095174</v>
+        <v>4.959163356401704</v>
       </c>
       <c r="I18">
-        <v>9.134852191524088</v>
+        <v>3.026815530326611</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>7.531420469092629</v>
       </c>
       <c r="K18">
-        <v>14.93268559430708</v>
+        <v>11.24947833448822</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>12.65878895467946</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>9.797263611770314</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <v>11.97292198552607</v>
+      </c>
+      <c r="Q18">
+        <v>11.36778026922997</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>16.67698334409017</v>
+        <v>14.17964660484327</v>
       </c>
       <c r="C19">
-        <v>9.716349036586513</v>
+        <v>8.991098544943741</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>35.5220582893521</v>
+        <v>23.41964895390945</v>
       </c>
       <c r="F19">
-        <v>36.15172494150059</v>
+        <v>36.15172494157628</v>
       </c>
       <c r="G19">
-        <v>13.50985901872763</v>
+        <v>16.46340596440602</v>
       </c>
       <c r="H19">
-        <v>6.644855247160642</v>
+        <v>3.866544989831153</v>
       </c>
       <c r="I19">
-        <v>9.162823444790053</v>
+        <v>3.046867680519992</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>7.683658823355377</v>
       </c>
       <c r="K19">
-        <v>14.87945289009506</v>
+        <v>11.46089397326427</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>12.81453524753149</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>9.812190034440599</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <v>11.88592546955135</v>
+      </c>
+      <c r="Q19">
+        <v>11.77625044772282</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>16.97283760624586</v>
+        <v>14.69120654752706</v>
       </c>
       <c r="C20">
-        <v>9.861608447822142</v>
+        <v>9.526634627217637</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>36.27848668540948</v>
+        <v>33.58028397009857</v>
       </c>
       <c r="F20">
-        <v>36.89155697731402</v>
+        <v>36.89155697731405</v>
       </c>
       <c r="G20">
-        <v>13.53802123066218</v>
+        <v>18.22209679301575</v>
       </c>
       <c r="H20">
-        <v>6.593222871992971</v>
+        <v>3.416121346203399</v>
       </c>
       <c r="I20">
-        <v>9.037540644046143</v>
+        <v>3.138408854239865</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>7.894651765899605</v>
       </c>
       <c r="K20">
-        <v>15.11760041517076</v>
+        <v>11.7349575962823</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>13.32899514923998</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>9.746329926013123</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <v>11.72646606326582</v>
+      </c>
+      <c r="Q20">
+        <v>12.39794963567534</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>17.93285040380618</v>
+        <v>15.56100829121551</v>
       </c>
       <c r="C21">
-        <v>10.33626927097279</v>
+        <v>9.977276969887942</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>38.75506808191111</v>
+        <v>36.30581189470355</v>
       </c>
       <c r="F21">
-        <v>39.30090300329761</v>
+        <v>39.30090300329764</v>
       </c>
       <c r="G21">
-        <v>13.70041576777207</v>
+        <v>18.69885487541504</v>
       </c>
       <c r="H21">
-        <v>6.427291532924048</v>
+        <v>3.697386140110565</v>
       </c>
       <c r="I21">
-        <v>8.627415025790405</v>
+        <v>3.277609783652062</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>7.870886407601101</v>
       </c>
       <c r="K21">
-        <v>15.8930732486625</v>
+        <v>11.62134513393236</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>14.0363377980422</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>9.549478738755971</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P21">
+        <v>11.60684801031881</v>
+      </c>
+      <c r="Q21">
+        <v>12.46397493097194</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>18.53502892193722</v>
+        <v>16.10593750170427</v>
       </c>
       <c r="C22">
-        <v>10.63643864058434</v>
+        <v>10.2217182529468</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>40.3273879893917</v>
+        <v>37.57809659732892</v>
       </c>
       <c r="F22">
         <v>40.81974568026784</v>
       </c>
       <c r="G22">
-        <v>13.86002680942059</v>
+        <v>18.97429576991537</v>
       </c>
       <c r="H22">
-        <v>6.324927417830847</v>
+        <v>3.859988438945866</v>
       </c>
       <c r="I22">
-        <v>8.368094459687427</v>
+        <v>3.360888016929522</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>7.852396717642083</v>
       </c>
       <c r="K22">
-        <v>16.381448981715</v>
+        <v>11.54850745016711</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>14.46626531971684</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>9.440953453904074</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P22">
+        <v>11.53366702898308</v>
+      </c>
+      <c r="Q22">
+        <v>12.49700144045569</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>18.21593664153797</v>
+        <v>15.83131638426554</v>
       </c>
       <c r="C23">
-        <v>10.47715498068099</v>
+        <v>10.06954934754926</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>39.49230256716849</v>
+        <v>36.90454476177181</v>
       </c>
       <c r="F23">
-        <v>40.01414225038427</v>
+        <v>40.01414225038423</v>
       </c>
       <c r="G23">
-        <v>13.76977114466101</v>
+        <v>18.86072058932059</v>
       </c>
       <c r="H23">
-        <v>6.378972855131054</v>
+        <v>3.773868781833251</v>
       </c>
       <c r="I23">
-        <v>8.505651936292772</v>
+        <v>3.31297819667481</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>7.867381076688871</v>
       </c>
       <c r="K23">
-        <v>16.12248259941492</v>
+        <v>11.6001383097415</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>14.23852262041944</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>9.496904468406939</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P23">
+        <v>11.56993822977178</v>
+      </c>
+      <c r="Q23">
+        <v>12.49272829503191</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>16.9567188972051</v>
+        <v>14.71800847337268</v>
       </c>
       <c r="C24">
-        <v>9.853681634884373</v>
+        <v>9.514422412754758</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>36.23719658616813</v>
+        <v>34.2422791815767</v>
       </c>
       <c r="F24">
-        <v>36.8512191057544</v>
+        <v>36.85121910575438</v>
       </c>
       <c r="G24">
-        <v>13.53622787297144</v>
+        <v>18.39540476961148</v>
       </c>
       <c r="H24">
-        <v>6.596030957903405</v>
+        <v>3.440156468671554</v>
       </c>
       <c r="I24">
-        <v>9.044381383829252</v>
+        <v>3.134242504518267</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>7.920684562438919</v>
       </c>
       <c r="K24">
-        <v>15.10461508774013</v>
+        <v>11.78210510017965</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>13.340349695898</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>9.749859394476216</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P24">
+        <v>11.71548004065604</v>
+      </c>
+      <c r="Q24">
+        <v>12.46651911807814</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>15.48946625098584</v>
+        <v>13.40751852115188</v>
       </c>
       <c r="C25">
-        <v>9.138586121751445</v>
+        <v>8.88513662557629</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>32.51413741216047</v>
+        <v>31.13262595826897</v>
       </c>
       <c r="F25">
-        <v>33.19272459126714</v>
+        <v>33.19272459126713</v>
       </c>
       <c r="G25">
-        <v>13.49366275405831</v>
+        <v>17.93646657000866</v>
       </c>
       <c r="H25">
-        <v>6.853475329848758</v>
+        <v>3.06459113783266</v>
       </c>
       <c r="I25">
-        <v>9.659010748003318</v>
+        <v>2.935907656985478</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>7.988838211174093</v>
       </c>
       <c r="K25">
-        <v>13.92800532450302</v>
+        <v>11.99442731305606</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>12.29667788724951</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>10.09713441112163</v>
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>11.88023952070235</v>
+      </c>
+      <c r="Q25">
+        <v>12.46356041710779</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_36/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_36/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1277 +421,1427 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>12.38916239209058</v>
+        <v>12.28788146364828</v>
       </c>
       <c r="C2">
-        <v>8.334458147103192</v>
+        <v>8.361844428856298</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>28.63793250568942</v>
+        <v>28.6414183829695</v>
       </c>
       <c r="F2">
-        <v>30.27884324296193</v>
+        <v>30.27884324296192</v>
       </c>
       <c r="G2">
-        <v>17.72322553753149</v>
+        <v>16.64035339892789</v>
       </c>
       <c r="H2">
-        <v>2.774929315291205</v>
+        <v>2.77739523773097</v>
       </c>
       <c r="I2">
-        <v>2.777206753567486</v>
+        <v>2.816800547827889</v>
       </c>
       <c r="J2">
-        <v>8.060550135636831</v>
+        <v>8.505350276893813</v>
       </c>
       <c r="K2">
-        <v>12.19504584793896</v>
+        <v>11.98088271027967</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>10.73725146755746</v>
       </c>
       <c r="M2">
-        <v>11.46547281710603</v>
+        <v>6.965711966327219</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>11.457033975255</v>
       </c>
       <c r="P2">
-        <v>12.00316953668878</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>12.51555107973424</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>11.98683131530594</v>
+      </c>
+      <c r="S2">
+        <v>12.37467025256956</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>11.61775538654168</v>
+        <v>11.55810972716004</v>
       </c>
       <c r="C3">
-        <v>7.981016728914396</v>
+        <v>7.934197289536598</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>26.81716751708569</v>
+        <v>26.82684488415361</v>
       </c>
       <c r="F3">
-        <v>28.16301984326747</v>
+        <v>28.16301984326746</v>
       </c>
       <c r="G3">
-        <v>17.54905817372986</v>
+        <v>16.52831941758997</v>
       </c>
       <c r="H3">
-        <v>2.56891819759341</v>
+        <v>2.575622061019035</v>
       </c>
       <c r="I3">
-        <v>2.669846041603769</v>
+        <v>2.721134175139785</v>
       </c>
       <c r="J3">
-        <v>8.106484757123184</v>
+        <v>8.530432593191122</v>
       </c>
       <c r="K3">
-        <v>12.32013450571239</v>
+        <v>12.11296729614451</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>10.90233939595877</v>
       </c>
       <c r="M3">
-        <v>10.86371152315058</v>
+        <v>7.033367276838486</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>10.85844670484045</v>
       </c>
       <c r="P3">
-        <v>12.09358956465334</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>12.54215755275413</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>12.06303584541725</v>
+      </c>
+      <c r="S3">
+        <v>12.41705689882959</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>11.11420432875435</v>
+        <v>11.08181059036405</v>
       </c>
       <c r="C4">
-        <v>7.758375141913102</v>
+        <v>7.664001937483598</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>25.63536116665176</v>
+        <v>25.64911015818149</v>
       </c>
       <c r="F4">
         <v>26.79314218379242</v>
       </c>
       <c r="G4">
-        <v>17.45040586419647</v>
+        <v>16.46854726483319</v>
       </c>
       <c r="H4">
-        <v>2.437781238376097</v>
+        <v>2.447153670645665</v>
       </c>
       <c r="I4">
-        <v>2.602145894276497</v>
+        <v>2.660947681568256</v>
       </c>
       <c r="J4">
-        <v>8.136753093914052</v>
+        <v>8.546641677395035</v>
       </c>
       <c r="K4">
-        <v>12.39988100380447</v>
+        <v>12.19611567718913</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>11.0084134953548</v>
       </c>
       <c r="M4">
-        <v>10.47583871387821</v>
+        <v>7.092736985263899</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>10.47264793488287</v>
       </c>
       <c r="P4">
-        <v>12.15112848862222</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>12.56305337005997</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>12.1121144708713</v>
+      </c>
+      <c r="S4">
+        <v>12.44666461999186</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>10.89659808469205</v>
+        <v>10.87577171505316</v>
       </c>
       <c r="C5">
-        <v>7.673305523423446</v>
+        <v>7.559466525843415</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>25.13755738664695</v>
+        <v>25.1530462084717</v>
       </c>
       <c r="F5">
         <v>26.21694803853475</v>
       </c>
       <c r="G5">
-        <v>17.40268771823023</v>
+        <v>16.43657652422945</v>
       </c>
       <c r="H5">
-        <v>2.383041658057762</v>
+        <v>2.393522470206096</v>
       </c>
       <c r="I5">
-        <v>2.574755703157328</v>
+        <v>2.636964340087959</v>
       </c>
       <c r="J5">
-        <v>8.148212396363077</v>
+        <v>8.552058306930075</v>
       </c>
       <c r="K5">
-        <v>12.429793330171</v>
+        <v>12.22725307471937</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>11.04939628174378</v>
       </c>
       <c r="M5">
-        <v>10.31320825207999</v>
+        <v>7.120033363532063</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>10.31090282090419</v>
       </c>
       <c r="P5">
-        <v>12.17547926878652</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>12.56904141375272</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>12.13311230557633</v>
+      </c>
+      <c r="S5">
+        <v>12.45597711090235</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>10.85401798998516</v>
+        <v>10.83517633325424</v>
       </c>
       <c r="C6">
-        <v>7.667682569108282</v>
+        <v>7.551046049871488</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>25.05371900994713</v>
+        <v>25.06950714443007</v>
       </c>
       <c r="F6">
         <v>26.1201820470107</v>
       </c>
       <c r="G6">
-        <v>17.38321004662442</v>
+        <v>16.41944388356362</v>
       </c>
       <c r="H6">
-        <v>2.373737627544964</v>
+        <v>2.384407839071872</v>
       </c>
       <c r="I6">
-        <v>2.571191032933892</v>
+        <v>2.634327637731539</v>
       </c>
       <c r="J6">
-        <v>8.148456694199144</v>
+        <v>8.551273178760438</v>
       </c>
       <c r="K6">
-        <v>12.43076229312467</v>
+        <v>12.22848195560408</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>11.05210086295094</v>
       </c>
       <c r="M6">
-        <v>10.28588323658271</v>
+        <v>7.123240866354549</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>10.28373364228631</v>
       </c>
       <c r="P6">
-        <v>12.18004732159851</v>
+        <v>0</v>
       </c>
       <c r="Q6">
-        <v>12.5656622469105</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>12.13716487393082</v>
+      </c>
+      <c r="S6">
+        <v>12.45315497027323</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>11.0952947861413</v>
+        <v>11.06026945020019</v>
       </c>
       <c r="C7">
-        <v>7.7803641141619</v>
+        <v>7.680802471707711</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>25.6281523766291</v>
+        <v>25.64147639563289</v>
       </c>
       <c r="F7">
         <v>26.78544435617556</v>
       </c>
       <c r="G7">
-        <v>17.41797742774643</v>
+        <v>16.51055913705386</v>
       </c>
       <c r="H7">
-        <v>2.436665373142953</v>
+        <v>2.44574890365042</v>
       </c>
       <c r="I7">
-        <v>2.604184288379675</v>
+        <v>2.663494670431124</v>
       </c>
       <c r="J7">
-        <v>8.132300434223934</v>
+        <v>8.514220952193289</v>
       </c>
       <c r="K7">
-        <v>12.38924152921804</v>
+        <v>12.18187303565854</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>10.99399606635111</v>
       </c>
       <c r="M7">
-        <v>10.47353230791981</v>
+        <v>7.086559524021499</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>10.46636433276417</v>
       </c>
       <c r="P7">
-        <v>12.15286496638364</v>
+        <v>0</v>
       </c>
       <c r="Q7">
-        <v>12.55102008467109</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>12.11471119454931</v>
+      </c>
+      <c r="S7">
+        <v>12.42726186670634</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>12.10976198368719</v>
+        <v>12.01371379757635</v>
       </c>
       <c r="C8">
-        <v>8.243065449687307</v>
+        <v>8.227373188686386</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>28.02271443181506</v>
+        <v>28.02692287750243</v>
       </c>
       <c r="F8">
         <v>29.56389055882486</v>
       </c>
       <c r="G8">
-        <v>17.61998510676827</v>
+        <v>16.80565169540847</v>
       </c>
       <c r="H8">
-        <v>2.704376605396748</v>
+        <v>2.707335051433124</v>
       </c>
       <c r="I8">
-        <v>2.743267039369869</v>
+        <v>2.786569393715289</v>
       </c>
       <c r="J8">
-        <v>8.069888074150212</v>
+        <v>8.417401729186517</v>
       </c>
       <c r="K8">
-        <v>12.22295625209112</v>
+        <v>11.99931260966952</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>10.76883553557932</v>
       </c>
       <c r="M8">
-        <v>11.261701851668</v>
+        <v>6.969165976065781</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>11.24185445611698</v>
       </c>
       <c r="P8">
-        <v>12.03605596117833</v>
+        <v>0</v>
       </c>
       <c r="Q8">
-        <v>12.50780470966036</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>12.0179637033657</v>
+      </c>
+      <c r="S8">
+        <v>12.34803071792174</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>13.88725712389069</v>
+        <v>13.69509982074999</v>
       </c>
       <c r="C9">
-        <v>9.064323003136732</v>
+        <v>9.216864934189624</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>32.21289149598211</v>
+        <v>32.20268464649212</v>
       </c>
       <c r="F9">
         <v>34.4587799414611</v>
       </c>
       <c r="G9">
-        <v>18.13984375442251</v>
+        <v>17.23875694518707</v>
       </c>
       <c r="H9">
-        <v>3.193833091894498</v>
+        <v>3.186393060953284</v>
       </c>
       <c r="I9">
-        <v>2.999074926439864</v>
+        <v>3.013780223059973</v>
       </c>
       <c r="J9">
-        <v>7.9726973129061</v>
+        <v>8.34002162321482</v>
       </c>
       <c r="K9">
-        <v>11.94067887905517</v>
+        <v>11.69070489781702</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>10.39594480302186</v>
       </c>
       <c r="M9">
-        <v>12.65831576289295</v>
+        <v>6.901813650063021</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>12.62918775947615</v>
       </c>
       <c r="P9">
-        <v>11.82026355698944</v>
+        <v>0</v>
       </c>
       <c r="Q9">
-        <v>12.48278259697201</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>11.84062508182752</v>
+      </c>
+      <c r="S9">
+        <v>12.27132370327422</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>15.01878917863682</v>
+        <v>14.75474230111955</v>
       </c>
       <c r="C10">
-        <v>9.607295945812668</v>
+        <v>9.835532940027877</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>34.10662591537352</v>
+        <v>34.08499287500943</v>
       </c>
       <c r="F10">
         <v>37.72874519847217</v>
       </c>
       <c r="G10">
-        <v>18.39088937650392</v>
+        <v>17.85884678851882</v>
       </c>
       <c r="H10">
-        <v>3.498251878750047</v>
+        <v>3.482298731151152</v>
       </c>
       <c r="I10">
-        <v>3.175134172537529</v>
+        <v>3.169471361999836</v>
       </c>
       <c r="J10">
-        <v>7.88830967211742</v>
+        <v>8.119201658093171</v>
       </c>
       <c r="K10">
-        <v>11.71139461301602</v>
+        <v>11.42135836773179</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>10.1100213433275</v>
       </c>
       <c r="M10">
-        <v>13.56142271039084</v>
+        <v>6.892020331802592</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>13.5074181655213</v>
       </c>
       <c r="P10">
-        <v>11.68473074807004</v>
+        <v>0</v>
       </c>
       <c r="Q10">
-        <v>12.42375793899689</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>11.74224793216366</v>
+      </c>
+      <c r="S10">
+        <v>12.13202851033383</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>15.28516214816703</v>
+        <v>15.00219265998471</v>
       </c>
       <c r="C11">
-        <v>9.551833992569076</v>
+        <v>9.701630294195056</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>27.43890778830642</v>
+        <v>27.41128948947313</v>
       </c>
       <c r="F11">
         <v>39.14805722232856</v>
       </c>
       <c r="G11">
-        <v>17.09059577154348</v>
+        <v>17.47736967770579</v>
       </c>
       <c r="H11">
-        <v>3.926794571915015</v>
+        <v>3.909941760719713</v>
       </c>
       <c r="I11">
-        <v>3.215521954412016</v>
+        <v>3.204261936810177</v>
       </c>
       <c r="J11">
-        <v>7.655501149917039</v>
+        <v>7.685604307561992</v>
       </c>
       <c r="K11">
-        <v>11.32142202740993</v>
+        <v>11.03302958178097</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>9.823652984870455</v>
       </c>
       <c r="M11">
-        <v>13.70881571949683</v>
+        <v>6.629410074950502</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>13.61354162981762</v>
       </c>
       <c r="P11">
-        <v>11.74113665952758</v>
+        <v>0</v>
       </c>
       <c r="Q11">
-        <v>11.8608897212337</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>11.83396489504725</v>
+      </c>
+      <c r="S11">
+        <v>11.51417499607997</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>15.30116994291172</v>
+        <v>15.02449565222283</v>
       </c>
       <c r="C12">
-        <v>9.371172450580275</v>
+        <v>9.457125814818953</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>21.41010406817178</v>
+        <v>21.37937316688357</v>
       </c>
       <c r="F12">
         <v>39.67592721363786</v>
       </c>
       <c r="G12">
-        <v>15.97973312135171</v>
+        <v>16.78344555567363</v>
       </c>
       <c r="H12">
-        <v>4.849635000818074</v>
+        <v>4.835994724144439</v>
       </c>
       <c r="I12">
-        <v>3.213797942855537</v>
+        <v>3.201028781602945</v>
       </c>
       <c r="J12">
-        <v>7.48369771186283</v>
+        <v>7.501524877362311</v>
       </c>
       <c r="K12">
-        <v>11.06491611823202</v>
+        <v>10.80254577364295</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>9.677346813992722</v>
       </c>
       <c r="M12">
-        <v>13.65227002970417</v>
+        <v>6.431120564990406</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>13.5383970496976</v>
       </c>
       <c r="P12">
-        <v>11.82323504208732</v>
+        <v>0</v>
       </c>
       <c r="Q12">
-        <v>11.41772745309523</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>11.93376099499229</v>
+      </c>
+      <c r="S12">
+        <v>11.07392496266615</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>15.1080352266388</v>
+        <v>14.86327966194484</v>
       </c>
       <c r="C13">
-        <v>9.110546179524041</v>
+        <v>9.151467557652879</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>15.34973611109466</v>
+        <v>15.31746011821794</v>
       </c>
       <c r="F13">
         <v>39.56266403260141</v>
       </c>
       <c r="G13">
-        <v>14.89692662287167</v>
+        <v>15.5716867147027</v>
       </c>
       <c r="H13">
-        <v>5.972536716241271</v>
+        <v>5.962838110193481</v>
       </c>
       <c r="I13">
-        <v>3.183662625180938</v>
+        <v>3.174561721064093</v>
       </c>
       <c r="J13">
-        <v>7.341942255796925</v>
+        <v>7.457958175374886</v>
       </c>
       <c r="K13">
-        <v>10.87985150498742</v>
+        <v>10.66567795236208</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>9.603520832207733</v>
       </c>
       <c r="M13">
-        <v>13.43456901940656</v>
+        <v>6.270577247866452</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>13.3259108571554</v>
       </c>
       <c r="P13">
-        <v>11.92827559226642</v>
+        <v>0</v>
       </c>
       <c r="Q13">
-        <v>11.02326838290737</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>12.03670622965421</v>
+      </c>
+      <c r="S13">
+        <v>10.73789238221759</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>14.87232658884516</v>
+        <v>14.66169527251615</v>
       </c>
       <c r="C14">
-        <v>8.897310419475374</v>
+        <v>8.914053483696632</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>11.08681452224716</v>
+        <v>11.05290241485147</v>
       </c>
       <c r="F14">
         <v>39.19167637503955</v>
       </c>
       <c r="G14">
-        <v>14.15106479263188</v>
+        <v>14.5059803613386</v>
       </c>
       <c r="H14">
-        <v>6.82995088957856</v>
+        <v>6.822739902702778</v>
       </c>
       <c r="I14">
-        <v>3.151282124963364</v>
+        <v>3.147322947497048</v>
       </c>
       <c r="J14">
-        <v>7.256430062795988</v>
+        <v>7.469543018070176</v>
       </c>
       <c r="K14">
-        <v>10.78313654953908</v>
+        <v>10.60824179668912</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>9.57737197333819</v>
       </c>
       <c r="M14">
-        <v>13.20748909363725</v>
+        <v>6.177790699699594</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>13.11290676382637</v>
       </c>
       <c r="P14">
-        <v>12.01228995196344</v>
+        <v>0</v>
       </c>
       <c r="Q14">
-        <v>10.77052439631061</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>12.10917097364274</v>
+      </c>
+      <c r="S14">
+        <v>10.54563609028212</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>14.76398155606147</v>
+        <v>14.56691337058541</v>
       </c>
       <c r="C15">
-        <v>8.833949420324037</v>
+        <v>8.84768137469128</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>10.04436113202453</v>
+        <v>10.01068984443063</v>
       </c>
       <c r="F15">
         <v>38.96319309154519</v>
       </c>
       <c r="G15">
-        <v>13.96822780358792</v>
+        <v>14.15314978477792</v>
       </c>
       <c r="H15">
-        <v>7.027778831560624</v>
+        <v>7.02131310311358</v>
       </c>
       <c r="I15">
-        <v>3.138074687753226</v>
+        <v>3.13698696000503</v>
       </c>
       <c r="J15">
-        <v>7.24091837165248</v>
+        <v>7.490732632795282</v>
       </c>
       <c r="K15">
-        <v>10.77140129133572</v>
+        <v>10.60864448635088</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>9.580124805014709</v>
       </c>
       <c r="M15">
-        <v>13.11640326863078</v>
+        <v>6.161829599226215</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>13.02978571045354</v>
       </c>
       <c r="P15">
-        <v>12.03729326430814</v>
+        <v>0</v>
       </c>
       <c r="Q15">
-        <v>10.71641694715625</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>12.12718788601232</v>
+      </c>
+      <c r="S15">
+        <v>10.51429307508391</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>14.31969525992232</v>
+        <v>14.16799069097263</v>
       </c>
       <c r="C16">
-        <v>8.661356963019164</v>
+        <v>8.693618606661598</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>9.983586972048181</v>
+        <v>9.96076593428336</v>
       </c>
       <c r="F16">
         <v>37.6346354302881</v>
       </c>
       <c r="G16">
-        <v>14.05460446203749</v>
+        <v>13.51221699146551</v>
       </c>
       <c r="H16">
-        <v>6.763028839294247</v>
+        <v>6.758710244825774</v>
       </c>
       <c r="I16">
-        <v>3.071752238693317</v>
+        <v>3.082014532700044</v>
       </c>
       <c r="J16">
-        <v>7.304142167064789</v>
+        <v>7.690336288613222</v>
       </c>
       <c r="K16">
-        <v>10.90316192088201</v>
+        <v>10.76188790880837</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>9.681697497859322</v>
       </c>
       <c r="M16">
-        <v>12.77643355499866</v>
+        <v>6.240612303166514</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>12.72783715251736</v>
       </c>
       <c r="P16">
-        <v>12.06274838752192</v>
+        <v>0</v>
       </c>
       <c r="Q16">
-        <v>10.81857713706265</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>12.11812275870686</v>
+      </c>
+      <c r="S16">
+        <v>10.68425293377477</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>14.1019785155183</v>
+        <v>13.9631692426525</v>
       </c>
       <c r="C17">
-        <v>8.644060272556489</v>
+        <v>8.697109099128932</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>12.27496411169966</v>
+        <v>12.25948331444307</v>
       </c>
       <c r="F17">
         <v>36.80228778268388</v>
       </c>
       <c r="G17">
-        <v>14.51412533664209</v>
+        <v>13.67711231819635</v>
       </c>
       <c r="H17">
-        <v>6.055308247101569</v>
+        <v>6.051667175935156</v>
       </c>
       <c r="I17">
-        <v>3.037771910555094</v>
+        <v>3.05369995758574</v>
       </c>
       <c r="J17">
-        <v>7.39752265598248</v>
+        <v>7.845155924378091</v>
       </c>
       <c r="K17">
-        <v>11.05374744062484</v>
+        <v>10.90939340585758</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>9.783142333653798</v>
       </c>
       <c r="M17">
-        <v>12.63607445538239</v>
+        <v>6.341602206739082</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>12.60434085720425</v>
       </c>
       <c r="P17">
-        <v>12.03969640414569</v>
+        <v>0</v>
       </c>
       <c r="Q17">
-        <v>11.02871511649433</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <v>12.07963609001064</v>
+      </c>
+      <c r="S17">
+        <v>10.91094587897842</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>14.07403932878521</v>
+        <v>13.92567146213495</v>
       </c>
       <c r="C18">
-        <v>8.749785399100531</v>
+        <v>8.838582827554399</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>17.03165284879922</v>
+        <v>17.0196531149904</v>
       </c>
       <c r="F18">
         <v>36.31710943239624</v>
       </c>
       <c r="G18">
-        <v>15.37559341297643</v>
+        <v>14.40219399071628</v>
       </c>
       <c r="H18">
-        <v>4.959163356401704</v>
+        <v>4.955015493080038</v>
       </c>
       <c r="I18">
-        <v>3.026815530326611</v>
+        <v>3.043281031608222</v>
       </c>
       <c r="J18">
-        <v>7.531420469092629</v>
+        <v>7.997903744299936</v>
       </c>
       <c r="K18">
-        <v>11.24947833448822</v>
+        <v>11.08544828418346</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>9.908350015119204</v>
       </c>
       <c r="M18">
-        <v>12.65878895467946</v>
+        <v>6.481026954467321</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>12.63414880700184</v>
       </c>
       <c r="P18">
-        <v>11.97292198552607</v>
+        <v>0</v>
       </c>
       <c r="Q18">
-        <v>11.36778026922997</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <v>12.00688616725036</v>
+      </c>
+      <c r="S18">
+        <v>11.23836290684904</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>14.17964660484327</v>
+        <v>14.00644053541426</v>
       </c>
       <c r="C19">
-        <v>8.991098544943741</v>
+        <v>9.131451048307026</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>23.41964895390945</v>
+        <v>23.4078805353198</v>
       </c>
       <c r="F19">
         <v>36.15172494157628</v>
       </c>
       <c r="G19">
-        <v>16.46340596440602</v>
+        <v>15.42423770955846</v>
       </c>
       <c r="H19">
-        <v>3.866544989831153</v>
+        <v>3.860336516034514</v>
       </c>
       <c r="I19">
-        <v>3.046867680519992</v>
+        <v>3.061944679506727</v>
       </c>
       <c r="J19">
-        <v>7.683658823355377</v>
+        <v>8.144064075827034</v>
       </c>
       <c r="K19">
-        <v>11.46089397326427</v>
+        <v>11.26634316755763</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>10.039237427957</v>
       </c>
       <c r="M19">
-        <v>12.81453524753149</v>
+        <v>6.635433853183854</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>12.79136922920902</v>
       </c>
       <c r="P19">
-        <v>11.88592546955135</v>
+        <v>0</v>
       </c>
       <c r="Q19">
-        <v>11.77625044772282</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <v>11.91934499103983</v>
+      </c>
+      <c r="S19">
+        <v>11.61765020038065</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>14.69120654752706</v>
+        <v>14.45387794597851</v>
       </c>
       <c r="C20">
-        <v>9.526634627217637</v>
+        <v>9.756367993762266</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>33.58028397009857</v>
+        <v>33.56285829955993</v>
       </c>
       <c r="F20">
         <v>36.89155697731405</v>
       </c>
       <c r="G20">
-        <v>18.22209679301575</v>
+        <v>17.33036075336008</v>
       </c>
       <c r="H20">
-        <v>3.416121346203399</v>
+        <v>3.40330240707739</v>
       </c>
       <c r="I20">
-        <v>3.138408854239865</v>
+        <v>3.14259549189184</v>
       </c>
       <c r="J20">
-        <v>7.894651765899605</v>
+        <v>8.253502690713967</v>
       </c>
       <c r="K20">
-        <v>11.7349575962823</v>
+        <v>11.4717536969788</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>10.16938616923777</v>
       </c>
       <c r="M20">
-        <v>13.32899514923998</v>
+        <v>6.871636187321966</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>13.29304052745812</v>
       </c>
       <c r="P20">
-        <v>11.72646606326582</v>
+        <v>0</v>
       </c>
       <c r="Q20">
-        <v>12.39794963567534</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <v>11.77067834201029</v>
+      </c>
+      <c r="S20">
+        <v>12.15520756042278</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>15.56100829121551</v>
+        <v>15.22395646810382</v>
       </c>
       <c r="C21">
-        <v>9.977276969887942</v>
+        <v>10.1784700532308</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>36.30581189470355</v>
+        <v>36.27359204148162</v>
       </c>
       <c r="F21">
         <v>39.30090300329764</v>
       </c>
       <c r="G21">
-        <v>18.69885487541504</v>
+        <v>19.47453349401693</v>
       </c>
       <c r="H21">
-        <v>3.697386140110565</v>
+        <v>3.673413291230793</v>
       </c>
       <c r="I21">
-        <v>3.277609783652062</v>
+        <v>3.258994396265074</v>
       </c>
       <c r="J21">
-        <v>7.870886407601101</v>
+        <v>7.706584604854022</v>
       </c>
       <c r="K21">
-        <v>11.62134513393236</v>
+        <v>11.24678728198814</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>9.952354027024827</v>
       </c>
       <c r="M21">
-        <v>14.0363377980422</v>
+        <v>6.86367614211036</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>13.92244618971537</v>
       </c>
       <c r="P21">
-        <v>11.60684801031881</v>
+        <v>0</v>
       </c>
       <c r="Q21">
-        <v>12.46397493097194</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <v>11.70343832338748</v>
+      </c>
+      <c r="S21">
+        <v>12.00953991651429</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>16.10593750170427</v>
+        <v>15.70571743851445</v>
       </c>
       <c r="C22">
-        <v>10.2217182529468</v>
+        <v>10.39422365440435</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>37.57809659732892</v>
+        <v>37.53663376760041</v>
       </c>
       <c r="F22">
         <v>40.81974568026784</v>
       </c>
       <c r="G22">
-        <v>18.97429576991537</v>
+        <v>20.96757880512408</v>
       </c>
       <c r="H22">
-        <v>3.859988438945866</v>
+        <v>3.829019163035539</v>
       </c>
       <c r="I22">
-        <v>3.360888016929522</v>
+        <v>3.326720392611982</v>
       </c>
       <c r="J22">
-        <v>7.852396717642083</v>
+        <v>7.410532564269491</v>
       </c>
       <c r="K22">
-        <v>11.54850745016711</v>
+        <v>11.09453991427358</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>9.814886148710356</v>
       </c>
       <c r="M22">
-        <v>14.46626531971684</v>
+        <v>6.863090178046575</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>14.29948832446958</v>
       </c>
       <c r="P22">
-        <v>11.53366702898308</v>
+        <v>0</v>
       </c>
       <c r="Q22">
-        <v>12.49700144045569</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R22">
+        <v>11.66834709886327</v>
+      </c>
+      <c r="S22">
+        <v>11.89224854617381</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>15.83131638426554</v>
+        <v>15.47011328219345</v>
       </c>
       <c r="C23">
-        <v>10.06954934754926</v>
+        <v>10.26929461576746</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>36.90454476177181</v>
+        <v>36.86865430071466</v>
       </c>
       <c r="F23">
         <v>40.01414225038423</v>
       </c>
       <c r="G23">
-        <v>18.86072058932059</v>
+        <v>20.00704307284045</v>
       </c>
       <c r="H23">
-        <v>3.773868781833251</v>
+        <v>3.74711699246023</v>
       </c>
       <c r="I23">
-        <v>3.31297819667481</v>
+        <v>3.28649582501867</v>
       </c>
       <c r="J23">
-        <v>7.867381076688871</v>
+        <v>7.603760856547889</v>
       </c>
       <c r="K23">
-        <v>11.6001383097415</v>
+        <v>11.19705555905676</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>9.899635376971034</v>
       </c>
       <c r="M23">
-        <v>14.23852262041944</v>
+        <v>6.884356730876487</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>14.10786295224879</v>
       </c>
       <c r="P23">
-        <v>11.56993822977178</v>
+        <v>0</v>
       </c>
       <c r="Q23">
-        <v>12.49272829503191</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R23">
+        <v>11.68014380776257</v>
+      </c>
+      <c r="S23">
+        <v>11.98743817829786</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>14.71800847337268</v>
+        <v>14.47865164847863</v>
       </c>
       <c r="C24">
-        <v>9.514422412754758</v>
+        <v>9.748053190848605</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>34.2422791815767</v>
+        <v>34.2247637840057</v>
       </c>
       <c r="F24">
         <v>36.85121910575438</v>
       </c>
       <c r="G24">
-        <v>18.39540476961148</v>
+        <v>17.4872511182588</v>
       </c>
       <c r="H24">
-        <v>3.440156468671554</v>
+        <v>3.427241212369094</v>
       </c>
       <c r="I24">
-        <v>3.134242504518267</v>
+        <v>3.136172220250614</v>
       </c>
       <c r="J24">
-        <v>7.920684562438919</v>
+        <v>8.28131285131931</v>
       </c>
       <c r="K24">
-        <v>11.78210510017965</v>
+        <v>11.51419132317312</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>10.19980858738784</v>
       </c>
       <c r="M24">
-        <v>13.340349695898</v>
+        <v>6.907618476143525</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>13.3049641900506</v>
       </c>
       <c r="P24">
-        <v>11.71548004065604</v>
+        <v>0</v>
       </c>
       <c r="Q24">
-        <v>12.46651911807814</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R24">
+        <v>11.75843547432862</v>
+      </c>
+      <c r="S24">
+        <v>12.22102699363249</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>13.40751852115188</v>
+        <v>13.24358257996303</v>
       </c>
       <c r="C25">
-        <v>8.88513662557629</v>
+        <v>9.003738130247637</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>31.13262595826897</v>
+        <v>31.12672551829159</v>
       </c>
       <c r="F25">
         <v>33.19272459126713</v>
       </c>
       <c r="G25">
-        <v>17.93646657000866</v>
+        <v>16.95155243399872</v>
       </c>
       <c r="H25">
-        <v>3.06459113783266</v>
+        <v>3.060322006099851</v>
       </c>
       <c r="I25">
-        <v>2.935907656985478</v>
+        <v>2.960377958542446</v>
       </c>
       <c r="J25">
-        <v>7.988838211174093</v>
+        <v>8.390580621728109</v>
       </c>
       <c r="K25">
-        <v>11.99442731305606</v>
+        <v>11.75896927589398</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>10.48244825157824</v>
       </c>
       <c r="M25">
-        <v>12.29667788724951</v>
+        <v>6.893538524301783</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>12.27496646496384</v>
       </c>
       <c r="P25">
-        <v>11.88023952070235</v>
+        <v>0</v>
       </c>
       <c r="Q25">
-        <v>12.46356041710779</v>
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>11.88888313229061</v>
+      </c>
+      <c r="S25">
+        <v>12.2780004505461</v>
       </c>
     </row>
   </sheetData>
